--- a/relatedFiles/other files/final/Services/services import list final to import.xlsx
+++ b/relatedFiles/other files/final/Services/services import list final to import.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Dev\Laravel\_Developing_Phase_Project\Murarkey Single Vendor\Murarkey_single_vendor_ecommerce_with_vuexy_template\relatedFiles\other files\Services\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\murarkey\Murarkey_single_vendor_ecommerce_with_vuexy_template\relatedFiles\other files\final\Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049D8452-C254-42F8-BF5A-F5E534B04A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" forceFullCalc="1"/>
+  <calcPr calcId="162913" forceFullCalc="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="337">
   <si>
     <t>about</t>
   </si>
@@ -1164,16 +1163,19 @@
     <t>Slug</t>
   </si>
   <si>
-    <t>http://murarkey.com/image/cache/600X600/xc8H4rpAZTTlg9LrT0JXJf9rKAFMEFlXIayNAjTK.jpg</t>
-  </si>
-  <si>
     <t>https://cdn-icons-png.flaticon.com/512/3461/3461906.png</t>
+  </si>
+  <si>
+    <t>http://demo.murarkey.com/image/cache/600X600/xc8H4rpAZTTlg9LrT0JXJf9rKAFMEFlXIayNAjTK.jpg</t>
+  </si>
+  <si>
+    <t>https://demo.murarkey.com/image/cache/600X600/xc8H4rpAZTTlg9LrT0JXJf9rKAFMEFlXIayNAjTK.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1430,23 +1432,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1482,23 +1467,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1674,36 +1642,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M86" workbookViewId="0">
-      <selection activeCell="M99" sqref="M99"/>
+    <sheetView tabSelected="1" topLeftCell="N97" workbookViewId="0">
+      <selection activeCell="N81" sqref="N81:N107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="255.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="255.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="84.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="234.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="16.5703125" style="4"/>
+    <col min="5" max="5" width="40.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="255.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="255.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="84.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="234.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="16.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -1762,7 +1730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>121</v>
       </c>
@@ -1801,10 +1769,10 @@
         <v>275</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>116</v>
@@ -1819,7 +1787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>121</v>
       </c>
@@ -1858,10 +1826,10 @@
         <v>276</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>116</v>
@@ -1876,7 +1844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>121</v>
       </c>
@@ -1915,10 +1883,10 @@
         <v>277</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>116</v>
@@ -1933,7 +1901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>121</v>
       </c>
@@ -1972,10 +1940,10 @@
         <v>277</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>116</v>
@@ -1990,7 +1958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>121</v>
       </c>
@@ -2029,10 +1997,10 @@
         <v>278</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>116</v>
@@ -2047,7 +2015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>121</v>
       </c>
@@ -2086,10 +2054,10 @@
         <v>279</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>116</v>
@@ -2104,7 +2072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>121</v>
       </c>
@@ -2143,10 +2111,10 @@
         <v>280</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>116</v>
@@ -2161,7 +2129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>121</v>
       </c>
@@ -2200,10 +2168,10 @@
         <v>281</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>116</v>
@@ -2218,7 +2186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>121</v>
       </c>
@@ -2257,10 +2225,10 @@
         <v>282</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>116</v>
@@ -2275,7 +2243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>121</v>
       </c>
@@ -2314,10 +2282,10 @@
         <v>283</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>116</v>
@@ -2332,7 +2300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>121</v>
       </c>
@@ -2371,10 +2339,10 @@
         <v>284</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O12" s="8" t="s">
         <v>116</v>
@@ -2389,7 +2357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>121</v>
       </c>
@@ -2428,10 +2396,10 @@
         <v>285</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>116</v>
@@ -2446,7 +2414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>121</v>
       </c>
@@ -2485,10 +2453,10 @@
         <v>286</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>116</v>
@@ -2503,7 +2471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>121</v>
       </c>
@@ -2542,10 +2510,10 @@
         <v>287</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>116</v>
@@ -2560,7 +2528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>121</v>
       </c>
@@ -2599,10 +2567,10 @@
         <v>288</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>116</v>
@@ -2617,7 +2585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>121</v>
       </c>
@@ -2656,10 +2624,10 @@
         <v>289</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O17" s="8" t="s">
         <v>116</v>
@@ -2674,7 +2642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>121</v>
       </c>
@@ -2713,10 +2681,10 @@
         <v>194</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O18" s="8" t="s">
         <v>116</v>
@@ -2731,7 +2699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>121</v>
       </c>
@@ -2770,10 +2738,10 @@
         <v>290</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O19" s="8" t="s">
         <v>116</v>
@@ -2788,7 +2756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>121</v>
       </c>
@@ -2827,10 +2795,10 @@
         <v>291</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O20" s="8" t="s">
         <v>116</v>
@@ -2845,7 +2813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>120</v>
       </c>
@@ -2884,10 +2852,10 @@
         <v>277</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O21" s="8" t="s">
         <v>116</v>
@@ -2902,7 +2870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>120</v>
       </c>
@@ -2941,10 +2909,10 @@
         <v>291</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O22" s="8" t="s">
         <v>116</v>
@@ -2959,7 +2927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>120</v>
       </c>
@@ -2998,10 +2966,10 @@
         <v>278</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O23" s="8" t="s">
         <v>116</v>
@@ -3016,7 +2984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>120</v>
       </c>
@@ -3055,10 +3023,10 @@
         <v>292</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O24" s="8" t="s">
         <v>116</v>
@@ -3073,7 +3041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>120</v>
       </c>
@@ -3112,10 +3080,10 @@
         <v>293</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O25" s="8" t="s">
         <v>116</v>
@@ -3130,7 +3098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>120</v>
       </c>
@@ -3169,10 +3137,10 @@
         <v>278</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O26" s="8" t="s">
         <v>116</v>
@@ -3187,7 +3155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>120</v>
       </c>
@@ -3226,10 +3194,10 @@
         <v>294</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O27" s="8" t="s">
         <v>116</v>
@@ -3244,7 +3212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>118</v>
       </c>
@@ -3283,10 +3251,10 @@
         <v>295</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O28" s="8" t="s">
         <v>116</v>
@@ -3301,7 +3269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>118</v>
       </c>
@@ -3340,10 +3308,10 @@
         <v>296</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O29" s="8" t="s">
         <v>116</v>
@@ -3358,7 +3326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>118</v>
       </c>
@@ -3397,10 +3365,10 @@
         <v>297</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O30" s="8" t="s">
         <v>116</v>
@@ -3415,7 +3383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>118</v>
       </c>
@@ -3454,10 +3422,10 @@
         <v>298</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O31" s="8" t="s">
         <v>116</v>
@@ -3472,7 +3440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>118</v>
       </c>
@@ -3511,10 +3479,10 @@
         <v>299</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O32" s="8" t="s">
         <v>116</v>
@@ -3529,7 +3497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>118</v>
       </c>
@@ -3568,10 +3536,10 @@
         <v>300</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O33" s="8" t="s">
         <v>116</v>
@@ -3586,7 +3554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>118</v>
       </c>
@@ -3625,10 +3593,10 @@
         <v>301</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O34" s="8" t="s">
         <v>116</v>
@@ -3643,7 +3611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>118</v>
       </c>
@@ -3682,10 +3650,10 @@
         <v>302</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O35" s="8" t="s">
         <v>116</v>
@@ -3700,7 +3668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>118</v>
       </c>
@@ -3739,10 +3707,10 @@
         <v>303</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O36" s="8" t="s">
         <v>116</v>
@@ -3757,7 +3725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>118</v>
       </c>
@@ -3796,10 +3764,10 @@
         <v>304</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O37" s="8" t="s">
         <v>116</v>
@@ -3814,7 +3782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>118</v>
       </c>
@@ -3853,10 +3821,10 @@
         <v>204</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O38" s="8" t="s">
         <v>116</v>
@@ -3871,7 +3839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>118</v>
       </c>
@@ -3910,10 +3878,10 @@
         <v>305</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O39" s="8" t="s">
         <v>116</v>
@@ -3928,7 +3896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>118</v>
       </c>
@@ -3967,10 +3935,10 @@
         <v>206</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O40" s="8" t="s">
         <v>116</v>
@@ -3985,7 +3953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>118</v>
       </c>
@@ -4024,10 +3992,10 @@
         <v>207</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O41" s="8" t="s">
         <v>116</v>
@@ -4042,7 +4010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>118</v>
       </c>
@@ -4078,10 +4046,10 @@
         <v>208</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O42" s="8" t="s">
         <v>116</v>
@@ -4096,7 +4064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>118</v>
       </c>
@@ -4135,10 +4103,10 @@
         <v>209</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O43" s="8" t="s">
         <v>116</v>
@@ -4153,7 +4121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>118</v>
       </c>
@@ -4192,10 +4160,10 @@
         <v>306</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O44" s="8" t="s">
         <v>116</v>
@@ -4210,7 +4178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>118</v>
       </c>
@@ -4249,10 +4217,10 @@
         <v>307</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O45" s="8" t="s">
         <v>116</v>
@@ -4267,7 +4235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>118</v>
       </c>
@@ -4306,10 +4274,10 @@
         <v>308</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O46" s="8" t="s">
         <v>116</v>
@@ -4324,7 +4292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>118</v>
       </c>
@@ -4363,10 +4331,10 @@
         <v>210</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O47" s="8" t="s">
         <v>116</v>
@@ -4381,7 +4349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>118</v>
       </c>
@@ -4420,10 +4388,10 @@
         <v>309</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O48" s="8" t="s">
         <v>116</v>
@@ -4438,7 +4406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>118</v>
       </c>
@@ -4477,10 +4445,10 @@
         <v>284</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O49" s="8" t="s">
         <v>116</v>
@@ -4495,7 +4463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>118</v>
       </c>
@@ -4534,10 +4502,10 @@
         <v>310</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>116</v>
@@ -4552,7 +4520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>118</v>
       </c>
@@ -4591,10 +4559,10 @@
         <v>311</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>116</v>
@@ -4609,7 +4577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>118</v>
       </c>
@@ -4648,10 +4616,10 @@
         <v>311</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>116</v>
@@ -4666,7 +4634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>118</v>
       </c>
@@ -4705,10 +4673,10 @@
         <v>311</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>116</v>
@@ -4723,7 +4691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>118</v>
       </c>
@@ -4762,10 +4730,10 @@
         <v>297</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>116</v>
@@ -4780,7 +4748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>118</v>
       </c>
@@ -4819,10 +4787,10 @@
         <v>297</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>116</v>
@@ -4837,7 +4805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>118</v>
       </c>
@@ -4876,10 +4844,10 @@
         <v>312</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N56" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>116</v>
@@ -4894,7 +4862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>118</v>
       </c>
@@ -4933,10 +4901,10 @@
         <v>312</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N57" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>116</v>
@@ -4951,7 +4919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>118</v>
       </c>
@@ -4990,10 +4958,10 @@
         <v>215</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N58" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O58" s="8" t="s">
         <v>116</v>
@@ -5008,7 +4976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>118</v>
       </c>
@@ -5047,10 +5015,10 @@
         <v>216</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>116</v>
@@ -5065,7 +5033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>118</v>
       </c>
@@ -5104,10 +5072,10 @@
         <v>306</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O60" s="8" t="s">
         <v>116</v>
@@ -5122,7 +5090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>118</v>
       </c>
@@ -5161,10 +5129,10 @@
         <v>279</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O61" s="8" t="s">
         <v>116</v>
@@ -5179,7 +5147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>118</v>
       </c>
@@ -5218,10 +5186,10 @@
         <v>217</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N62" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O62" s="8" t="s">
         <v>116</v>
@@ -5236,7 +5204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>118</v>
       </c>
@@ -5275,10 +5243,10 @@
         <v>313</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N63" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O63" s="8" t="s">
         <v>116</v>
@@ -5293,7 +5261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>118</v>
       </c>
@@ -5332,10 +5300,10 @@
         <v>314</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N64" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O64" s="8" t="s">
         <v>116</v>
@@ -5350,7 +5318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>118</v>
       </c>
@@ -5389,10 +5357,10 @@
         <v>292</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N65" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O65" s="8" t="s">
         <v>116</v>
@@ -5407,7 +5375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>118</v>
       </c>
@@ -5446,10 +5414,10 @@
         <v>315</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O66" s="8" t="s">
         <v>116</v>
@@ -5464,7 +5432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>118</v>
       </c>
@@ -5503,10 +5471,10 @@
         <v>312</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N67" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O67" s="8" t="s">
         <v>116</v>
@@ -5521,7 +5489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>118</v>
       </c>
@@ -5560,10 +5528,10 @@
         <v>312</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N68" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O68" s="8" t="s">
         <v>116</v>
@@ -5578,7 +5546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>118</v>
       </c>
@@ -5617,10 +5585,10 @@
         <v>312</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N69" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O69" s="8" t="s">
         <v>116</v>
@@ -5635,7 +5603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>118</v>
       </c>
@@ -5674,10 +5642,10 @@
         <v>312</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O70" s="8" t="s">
         <v>116</v>
@@ -5692,7 +5660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>118</v>
       </c>
@@ -5731,10 +5699,10 @@
         <v>311</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O71" s="8" t="s">
         <v>116</v>
@@ -5749,7 +5717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>118</v>
       </c>
@@ -5788,10 +5756,10 @@
         <v>220</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N72" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O72" s="8" t="s">
         <v>116</v>
@@ -5806,7 +5774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>118</v>
       </c>
@@ -5845,10 +5813,10 @@
         <v>221</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O73" s="8" t="s">
         <v>116</v>
@@ -5863,7 +5831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>118</v>
       </c>
@@ -5902,10 +5870,10 @@
         <v>222</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N74" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O74" s="8" t="s">
         <v>116</v>
@@ -5920,7 +5888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>118</v>
       </c>
@@ -5959,10 +5927,10 @@
         <v>282</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O75" s="8" t="s">
         <v>116</v>
@@ -5977,7 +5945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>118</v>
       </c>
@@ -6016,10 +5984,10 @@
         <v>316</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N76" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O76" s="8" t="s">
         <v>116</v>
@@ -6034,7 +6002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>118</v>
       </c>
@@ -6073,10 +6041,10 @@
         <v>317</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N77" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O77" s="8" t="s">
         <v>116</v>
@@ -6091,7 +6059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>118</v>
       </c>
@@ -6130,10 +6098,10 @@
         <v>318</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N78" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O78" s="8" t="s">
         <v>116</v>
@@ -6148,7 +6116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>119</v>
       </c>
@@ -6187,10 +6155,10 @@
         <v>319</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N79" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O79" s="8" t="s">
         <v>116</v>
@@ -6205,7 +6173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>119</v>
       </c>
@@ -6244,10 +6212,10 @@
         <v>224</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N80" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O80" s="8" t="s">
         <v>116</v>
@@ -6262,7 +6230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>119</v>
       </c>
@@ -6301,10 +6269,10 @@
         <v>224</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N81" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O81" s="8" t="s">
         <v>116</v>
@@ -6319,7 +6287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>119</v>
       </c>
@@ -6358,10 +6326,10 @@
         <v>225</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N82" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O82" s="8" t="s">
         <v>116</v>
@@ -6376,7 +6344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>119</v>
       </c>
@@ -6415,10 +6383,10 @@
         <v>226</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N83" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O83" s="8" t="s">
         <v>116</v>
@@ -6433,7 +6401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>119</v>
       </c>
@@ -6472,10 +6440,10 @@
         <v>320</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N84" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O84" s="8" t="s">
         <v>116</v>
@@ -6490,7 +6458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>119</v>
       </c>
@@ -6529,10 +6497,10 @@
         <v>321</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O85" s="8" t="s">
         <v>116</v>
@@ -6547,7 +6515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>119</v>
       </c>
@@ -6586,10 +6554,10 @@
         <v>322</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N86" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O86" s="8" t="s">
         <v>116</v>
@@ -6604,7 +6572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>119</v>
       </c>
@@ -6643,10 +6611,10 @@
         <v>228</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N87" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O87" s="8" t="s">
         <v>116</v>
@@ -6661,7 +6629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>119</v>
       </c>
@@ -6700,10 +6668,10 @@
         <v>323</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N88" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O88" s="8" t="s">
         <v>116</v>
@@ -6718,7 +6686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>119</v>
       </c>
@@ -6757,10 +6725,10 @@
         <v>324</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N89" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O89" s="8" t="s">
         <v>116</v>
@@ -6775,7 +6743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>119</v>
       </c>
@@ -6814,10 +6782,10 @@
         <v>325</v>
       </c>
       <c r="M90" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N90" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O90" s="8" t="s">
         <v>116</v>
@@ -6832,7 +6800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>119</v>
       </c>
@@ -6871,10 +6839,10 @@
         <v>326</v>
       </c>
       <c r="M91" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N91" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O91" s="8" t="s">
         <v>116</v>
@@ -6889,7 +6857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>119</v>
       </c>
@@ -6928,10 +6896,10 @@
         <v>327</v>
       </c>
       <c r="M92" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N92" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O92" s="8" t="s">
         <v>116</v>
@@ -6946,7 +6914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>119</v>
       </c>
@@ -6985,10 +6953,10 @@
         <v>230</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N93" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O93" s="8" t="s">
         <v>116</v>
@@ -7003,7 +6971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>119</v>
       </c>
@@ -7042,10 +7010,10 @@
         <v>328</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N94" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O94" s="8" t="s">
         <v>116</v>
@@ -7060,7 +7028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>119</v>
       </c>
@@ -7099,10 +7067,10 @@
         <v>329</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N95" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O95" s="8" t="s">
         <v>116</v>
@@ -7117,7 +7085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>119</v>
       </c>
@@ -7156,10 +7124,10 @@
         <v>224</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N96" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O96" s="8" t="s">
         <v>116</v>
@@ -7174,7 +7142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>119</v>
       </c>
@@ -7213,10 +7181,10 @@
         <v>232</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N97" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O97" s="8" t="s">
         <v>116</v>
@@ -7231,7 +7199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>119</v>
       </c>
@@ -7270,10 +7238,10 @@
         <v>233</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N98" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O98" s="8" t="s">
         <v>116</v>
@@ -7288,7 +7256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>119</v>
       </c>
@@ -7327,10 +7295,10 @@
         <v>234</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N99" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O99" s="8" t="s">
         <v>116</v>
@@ -7345,7 +7313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>119</v>
       </c>
@@ -7384,10 +7352,10 @@
         <v>330</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N100" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O100" s="8" t="s">
         <v>116</v>
@@ -7402,7 +7370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>119</v>
       </c>
@@ -7441,10 +7409,10 @@
         <v>330</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N101" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O101" s="8" t="s">
         <v>116</v>
@@ -7459,7 +7427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>119</v>
       </c>
@@ -7498,10 +7466,10 @@
         <v>331</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N102" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O102" s="8" t="s">
         <v>116</v>
@@ -7516,7 +7484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>119</v>
       </c>
@@ -7555,10 +7523,10 @@
         <v>332</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N103" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O103" s="8" t="s">
         <v>116</v>
@@ -7573,7 +7541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>119</v>
       </c>
@@ -7612,10 +7580,10 @@
         <v>238</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N104" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O104" s="8" t="s">
         <v>116</v>
@@ -7630,7 +7598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>119</v>
       </c>
@@ -7669,10 +7637,10 @@
         <v>208</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N105" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O105" s="8" t="s">
         <v>116</v>
@@ -7687,7 +7655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>119</v>
       </c>
@@ -7726,10 +7694,10 @@
         <v>239</v>
       </c>
       <c r="M106" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N106" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O106" s="8" t="s">
         <v>116</v>
@@ -7744,7 +7712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>119</v>
       </c>
@@ -7783,10 +7751,10 @@
         <v>291</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N107" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O107" s="8" t="s">
         <v>116</v>
@@ -7801,17 +7769,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B108" s="10"/>
+      <c r="N108" s="9"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S107">
+  <sortState ref="A2:S107">
     <sortCondition ref="A2:A107"/>
     <sortCondition ref="B2:B107"/>
     <sortCondition ref="C2:C107"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="N2" r:id="rId2"/>
+    <hyperlink ref="N81" r:id="rId3"/>
+    <hyperlink ref="N82:N107" r:id="rId4" display="https://demo.murarkey.com/image/cache/600X600/xc8H4rpAZTTlg9LrT0JXJf9rKAFMEFlXIayNAjTK.jpg"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/relatedFiles/other files/final/Services/services import list final to import.xlsx
+++ b/relatedFiles/other files/final/Services/services import list final to import.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\murarkey\Murarkey_single_vendor_ecommerce_with_vuexy_template\relatedFiles\other files\final\Services\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Dev\Laravel\_Developing_Phase_Project\Murarkey Single Vendor\Murarkey_single_vendor_ecommerce_with_vuexy_template\relatedFiles\other files\final\Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9078D233-1603-4D46-A40F-5906B27A4F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" forceFullCalc="1"/>
+  <calcPr calcId="181029" forceFullCalc="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="338">
   <si>
     <t>about</t>
   </si>
@@ -1171,11 +1172,14 @@
   <si>
     <t>https://demo.murarkey.com/image/cache/600X600/xc8H4rpAZTTlg9LrT0JXJf9rKAFMEFlXIayNAjTK.jpg</t>
   </si>
+  <si>
+    <t>serviceTo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1432,6 +1436,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1467,6 +1488,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1642,36 +1680,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N97" workbookViewId="0">
-      <selection activeCell="N81" sqref="N81:N107"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="255.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="255.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="84.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="234.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="16.5546875" style="4"/>
+    <col min="5" max="5" width="40.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="255.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="255.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="84.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="234.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="16.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -1729,8 +1767,11 @@
       <c r="S1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>121</v>
       </c>
@@ -1786,8 +1827,11 @@
       <c r="R2" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>121</v>
       </c>
@@ -1843,8 +1887,11 @@
       <c r="R3" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>121</v>
       </c>
@@ -1900,8 +1947,11 @@
       <c r="R4" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>121</v>
       </c>
@@ -1957,8 +2007,11 @@
       <c r="R5" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>121</v>
       </c>
@@ -2014,8 +2067,11 @@
       <c r="R6" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>121</v>
       </c>
@@ -2071,8 +2127,11 @@
       <c r="R7" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>121</v>
       </c>
@@ -2128,8 +2187,11 @@
       <c r="R8" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>121</v>
       </c>
@@ -2185,8 +2247,11 @@
       <c r="R9" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>121</v>
       </c>
@@ -2242,8 +2307,11 @@
       <c r="R10" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>121</v>
       </c>
@@ -2299,8 +2367,11 @@
       <c r="R11" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>121</v>
       </c>
@@ -2356,8 +2427,11 @@
       <c r="R12" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>121</v>
       </c>
@@ -2413,8 +2487,11 @@
       <c r="R13" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>121</v>
       </c>
@@ -2470,8 +2547,11 @@
       <c r="R14" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>121</v>
       </c>
@@ -2527,8 +2607,11 @@
       <c r="R15" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>121</v>
       </c>
@@ -2584,8 +2667,11 @@
       <c r="R16" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>121</v>
       </c>
@@ -2641,8 +2727,11 @@
       <c r="R17" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>121</v>
       </c>
@@ -2698,8 +2787,11 @@
       <c r="R18" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>121</v>
       </c>
@@ -2755,8 +2847,11 @@
       <c r="R19" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>121</v>
       </c>
@@ -2812,8 +2907,11 @@
       <c r="R20" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>120</v>
       </c>
@@ -2869,8 +2967,11 @@
       <c r="R21" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>120</v>
       </c>
@@ -2926,8 +3027,11 @@
       <c r="R22" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>120</v>
       </c>
@@ -2983,8 +3087,11 @@
       <c r="R23" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>120</v>
       </c>
@@ -3040,8 +3147,11 @@
       <c r="R24" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>120</v>
       </c>
@@ -3097,8 +3207,11 @@
       <c r="R25" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>120</v>
       </c>
@@ -3154,8 +3267,11 @@
       <c r="R26" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>120</v>
       </c>
@@ -3211,8 +3327,11 @@
       <c r="R27" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>118</v>
       </c>
@@ -3268,8 +3387,11 @@
       <c r="R28" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>118</v>
       </c>
@@ -3325,8 +3447,11 @@
       <c r="R29" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>118</v>
       </c>
@@ -3382,8 +3507,11 @@
       <c r="R30" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>118</v>
       </c>
@@ -3439,8 +3567,11 @@
       <c r="R31" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>118</v>
       </c>
@@ -3496,8 +3627,11 @@
       <c r="R32" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>118</v>
       </c>
@@ -3553,8 +3687,11 @@
       <c r="R33" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>118</v>
       </c>
@@ -3610,8 +3747,11 @@
       <c r="R34" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>118</v>
       </c>
@@ -3667,8 +3807,11 @@
       <c r="R35" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>118</v>
       </c>
@@ -3724,8 +3867,11 @@
       <c r="R36" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>118</v>
       </c>
@@ -3781,8 +3927,11 @@
       <c r="R37" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>118</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="R38" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>118</v>
       </c>
@@ -3895,8 +4047,11 @@
       <c r="R39" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>118</v>
       </c>
@@ -3952,8 +4107,11 @@
       <c r="R40" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>118</v>
       </c>
@@ -4009,8 +4167,11 @@
       <c r="R41" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>118</v>
       </c>
@@ -4063,8 +4224,11 @@
       <c r="R42" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>118</v>
       </c>
@@ -4120,8 +4284,11 @@
       <c r="R43" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>118</v>
       </c>
@@ -4177,8 +4344,11 @@
       <c r="R44" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>118</v>
       </c>
@@ -4234,8 +4404,11 @@
       <c r="R45" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>118</v>
       </c>
@@ -4291,8 +4464,11 @@
       <c r="R46" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>118</v>
       </c>
@@ -4348,8 +4524,11 @@
       <c r="R47" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>118</v>
       </c>
@@ -4405,8 +4584,11 @@
       <c r="R48" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>118</v>
       </c>
@@ -4462,8 +4644,11 @@
       <c r="R49" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>118</v>
       </c>
@@ -4519,8 +4704,11 @@
       <c r="R50" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>118</v>
       </c>
@@ -4576,8 +4764,11 @@
       <c r="R51" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>118</v>
       </c>
@@ -4633,8 +4824,11 @@
       <c r="R52" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>118</v>
       </c>
@@ -4690,8 +4884,11 @@
       <c r="R53" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>118</v>
       </c>
@@ -4747,8 +4944,11 @@
       <c r="R54" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>118</v>
       </c>
@@ -4804,8 +5004,11 @@
       <c r="R55" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>118</v>
       </c>
@@ -4861,8 +5064,11 @@
       <c r="R56" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>118</v>
       </c>
@@ -4918,8 +5124,11 @@
       <c r="R57" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>118</v>
       </c>
@@ -4975,8 +5184,11 @@
       <c r="R58" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>118</v>
       </c>
@@ -5032,8 +5244,11 @@
       <c r="R59" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>118</v>
       </c>
@@ -5089,8 +5304,11 @@
       <c r="R60" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>118</v>
       </c>
@@ -5146,8 +5364,11 @@
       <c r="R61" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>118</v>
       </c>
@@ -5203,8 +5424,11 @@
       <c r="R62" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>118</v>
       </c>
@@ -5260,8 +5484,11 @@
       <c r="R63" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>118</v>
       </c>
@@ -5317,8 +5544,11 @@
       <c r="R64" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>118</v>
       </c>
@@ -5374,8 +5604,11 @@
       <c r="R65" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>118</v>
       </c>
@@ -5431,8 +5664,11 @@
       <c r="R66" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>118</v>
       </c>
@@ -5488,8 +5724,11 @@
       <c r="R67" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>118</v>
       </c>
@@ -5545,8 +5784,11 @@
       <c r="R68" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>118</v>
       </c>
@@ -5602,8 +5844,11 @@
       <c r="R69" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>118</v>
       </c>
@@ -5659,8 +5904,11 @@
       <c r="R70" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>118</v>
       </c>
@@ -5716,8 +5964,11 @@
       <c r="R71" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>118</v>
       </c>
@@ -5773,8 +6024,11 @@
       <c r="R72" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>118</v>
       </c>
@@ -5830,8 +6084,11 @@
       <c r="R73" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>118</v>
       </c>
@@ -5887,8 +6144,11 @@
       <c r="R74" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>118</v>
       </c>
@@ -5944,8 +6204,11 @@
       <c r="R75" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>118</v>
       </c>
@@ -6001,8 +6264,11 @@
       <c r="R76" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>118</v>
       </c>
@@ -6058,8 +6324,11 @@
       <c r="R77" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>118</v>
       </c>
@@ -6115,8 +6384,11 @@
       <c r="R78" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>119</v>
       </c>
@@ -6172,8 +6444,11 @@
       <c r="R79" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>119</v>
       </c>
@@ -6229,8 +6504,11 @@
       <c r="R80" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>119</v>
       </c>
@@ -6286,8 +6564,11 @@
       <c r="R81" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>119</v>
       </c>
@@ -6343,8 +6624,11 @@
       <c r="R82" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>119</v>
       </c>
@@ -6400,8 +6684,11 @@
       <c r="R83" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>119</v>
       </c>
@@ -6457,8 +6744,11 @@
       <c r="R84" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>119</v>
       </c>
@@ -6514,8 +6804,11 @@
       <c r="R85" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>119</v>
       </c>
@@ -6571,8 +6864,11 @@
       <c r="R86" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>119</v>
       </c>
@@ -6628,8 +6924,11 @@
       <c r="R87" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>119</v>
       </c>
@@ -6685,8 +6984,11 @@
       <c r="R88" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>119</v>
       </c>
@@ -6742,8 +7044,11 @@
       <c r="R89" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T89" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>119</v>
       </c>
@@ -6799,8 +7104,11 @@
       <c r="R90" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>119</v>
       </c>
@@ -6856,8 +7164,11 @@
       <c r="R91" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>119</v>
       </c>
@@ -6913,8 +7224,11 @@
       <c r="R92" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>119</v>
       </c>
@@ -6970,8 +7284,11 @@
       <c r="R93" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>119</v>
       </c>
@@ -7027,8 +7344,11 @@
       <c r="R94" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>119</v>
       </c>
@@ -7084,8 +7404,11 @@
       <c r="R95" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>119</v>
       </c>
@@ -7141,8 +7464,11 @@
       <c r="R96" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T96" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>119</v>
       </c>
@@ -7198,8 +7524,11 @@
       <c r="R97" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>119</v>
       </c>
@@ -7255,8 +7584,11 @@
       <c r="R98" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>119</v>
       </c>
@@ -7312,8 +7644,11 @@
       <c r="R99" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>119</v>
       </c>
@@ -7369,8 +7704,11 @@
       <c r="R100" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T100" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>119</v>
       </c>
@@ -7426,8 +7764,11 @@
       <c r="R101" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>119</v>
       </c>
@@ -7483,8 +7824,11 @@
       <c r="R102" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T102" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>119</v>
       </c>
@@ -7540,8 +7884,11 @@
       <c r="R103" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T103" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>119</v>
       </c>
@@ -7597,8 +7944,11 @@
       <c r="R104" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T104" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>119</v>
       </c>
@@ -7654,8 +8004,11 @@
       <c r="R105" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T105" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>119</v>
       </c>
@@ -7711,8 +8064,11 @@
       <c r="R106" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>119</v>
       </c>
@@ -7768,23 +8124,26 @@
       <c r="R107" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T107" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="10"/>
       <c r="N108" s="9"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <sortState ref="A2:S107">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S107">
     <sortCondition ref="A2:A107"/>
     <sortCondition ref="B2:B107"/>
     <sortCondition ref="C2:C107"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
-    <hyperlink ref="N2" r:id="rId2"/>
-    <hyperlink ref="N81" r:id="rId3"/>
-    <hyperlink ref="N82:N107" r:id="rId4" display="https://demo.murarkey.com/image/cache/600X600/xc8H4rpAZTTlg9LrT0JXJf9rKAFMEFlXIayNAjTK.jpg"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N81" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="N82:N107" r:id="rId4" display="https://demo.murarkey.com/image/cache/600X600/xc8H4rpAZTTlg9LrT0JXJf9rKAFMEFlXIayNAjTK.jpg" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/relatedFiles/other files/final/Services/services import list final to import.xlsx
+++ b/relatedFiles/other files/final/Services/services import list final to import.xlsx
@@ -1645,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N97" workbookViewId="0">
-      <selection activeCell="N81" sqref="N81:N107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N114" sqref="N114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/relatedFiles/other files/final/Services/services import list final to import.xlsx
+++ b/relatedFiles/other files/final/Services/services import list final to import.xlsx
@@ -1160,9 +1160,6 @@
     <t xml:space="preserve">Whether You Are Feeling Funky Or Glamorous, Now Let Your Fake Nails Be An Extension Of Your Mood. </t>
   </si>
   <si>
-    <t>Slug</t>
-  </si>
-  <si>
     <t>https://cdn-icons-png.flaticon.com/512/3461/3461906.png</t>
   </si>
   <si>
@@ -1170,13 +1167,16 @@
   </si>
   <si>
     <t>https://demo.murarkey.com/image/cache/600X600/xc8H4rpAZTTlg9LrT0JXJf9rKAFMEFlXIayNAjTK.jpg</t>
+  </si>
+  <si>
+    <t>serviceTo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1200,6 +1200,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1218,6 +1219,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF332F51"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1288,7 +1297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1338,6 +1347,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1645,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N114" sqref="N114"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1685,49 +1695,49 @@
         <v>273</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>333</v>
+        <v>240</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>6</v>
+        <v>177</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -1743,48 +1753,48 @@
       <c r="D2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="4" t="str">
-        <f t="shared" ref="E2:E33" si="0">LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TRIM(C2)," ","-"),"'",""),"""",""),"/",""),"?",""),".",""),"&gt;",""),"&lt;",""),",",""),";",""),":",""),"[",""),"]",""),"}",""),"[",""),"{",""),"|",""),"\",""),"+",""),"=",""),"~",""),"`",""),"!",""),"@",""),"#",""),"$",""),"%",""),"^",""),"&amp;",""),"*",""),"(",""),")",""),"#",""),"'",""),"""",""),"---","-"),"--","-"))</f>
-        <v>bridal-hairstyling</v>
+      <c r="E2" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="G2" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="8">
+      <c r="G2" s="8">
         <v>30</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" s="8">
+      <c r="H2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="8">
         <v>60</v>
       </c>
+      <c r="J2" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K2" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L2" s="8" t="s">
         <v>275</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="8">
+      <c r="N2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="8">
         <v>2000</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>13</v>
+      <c r="Q2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -1800,48 +1810,48 @@
       <c r="D3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>bridal-makeup</v>
+      <c r="E3" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G3" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="H3" s="8">
+      <c r="G3" s="8">
         <v>100</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="H3" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="8">
         <v>120</v>
       </c>
+      <c r="J3" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K3" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L3" s="8" t="s">
         <v>276</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N3" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="8">
+      <c r="N3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8">
         <v>3500</v>
       </c>
-      <c r="R3" s="8" t="s">
-        <v>13</v>
+      <c r="Q3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -1857,48 +1867,48 @@
       <c r="D4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>engagement-hairstyling</v>
+      <c r="E4" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="G4" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="H4" s="8">
+      <c r="G4" s="8">
         <v>10</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J4" s="8">
+      <c r="H4" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="8">
         <v>15</v>
       </c>
+      <c r="J4" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K4" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L4" s="8" t="s">
         <v>277</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N4" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8">
+      <c r="N4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
         <v>250</v>
       </c>
-      <c r="R4" s="8" t="s">
-        <v>13</v>
+      <c r="Q4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1914,48 +1924,48 @@
       <c r="D5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>engagement-makeup</v>
+      <c r="E5" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G5" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="H5" s="8">
+      <c r="G5" s="8">
         <v>10</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J5" s="8">
+      <c r="H5" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="8">
         <v>20</v>
       </c>
+      <c r="J5" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K5" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L5" s="8" t="s">
         <v>277</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N5" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8">
+      <c r="N5" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
         <v>550</v>
       </c>
-      <c r="R5" s="8" t="s">
-        <v>13</v>
+      <c r="Q5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1971,48 +1981,48 @@
       <c r="D6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>reception-hairstyling</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="H6" s="8">
+      <c r="G6" s="8">
         <v>10</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="H6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="8">
         <v>15</v>
       </c>
+      <c r="J6" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K6" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L6" s="8" t="s">
         <v>278</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N6" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8">
+      <c r="N6" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
         <v>1000</v>
       </c>
-      <c r="R6" s="8" t="s">
-        <v>13</v>
+      <c r="Q6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -2028,51 +2038,51 @@
       <c r="D7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>reception-makeup</v>
+      <c r="E7" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G7" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H7" s="8">
+      <c r="G7" s="8">
         <v>10</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="H7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="8">
         <v>15</v>
       </c>
+      <c r="J7" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K7" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L7" s="8" t="s">
         <v>279</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N7" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8">
+      <c r="N7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
         <v>300</v>
       </c>
-      <c r="R7" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>121</v>
       </c>
@@ -2085,48 +2095,48 @@
       <c r="D8" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>golden-queen-bride</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="H8" s="8">
+      <c r="G8" s="8">
         <v>30</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J8" s="8">
+      <c r="H8" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="8">
         <v>60</v>
       </c>
+      <c r="J8" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K8" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L8" s="8" t="s">
         <v>280</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N8" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8">
+      <c r="N8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
         <v>999</v>
       </c>
-      <c r="R8" s="8" t="s">
-        <v>13</v>
+      <c r="Q8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -2142,48 +2152,48 @@
       <c r="D9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>platinum-perfect-bride</v>
+      <c r="E9" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H9" s="8">
+      <c r="G9" s="8">
         <v>10</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="8">
+      <c r="H9" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="8">
         <v>15</v>
       </c>
+      <c r="J9" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K9" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L9" s="8" t="s">
         <v>281</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N9" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8">
+      <c r="N9" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
         <v>250</v>
       </c>
-      <c r="R9" s="8" t="s">
-        <v>13</v>
+      <c r="Q9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -2199,48 +2209,48 @@
       <c r="D10" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>pre-wedding-photoshoot-package</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="H10" s="8">
+      <c r="G10" s="8">
         <v>15</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J10" s="8">
+      <c r="H10" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="8">
         <v>30</v>
       </c>
+      <c r="J10" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K10" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L10" s="8" t="s">
         <v>282</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N10" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="8">
+      <c r="N10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
         <v>1250</v>
       </c>
-      <c r="R10" s="8" t="s">
-        <v>13</v>
+      <c r="Q10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -2256,48 +2266,48 @@
       <c r="D11" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>uncut-diamond-bride</v>
+      <c r="E11" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G11" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H11" s="8">
+      <c r="G11" s="8">
         <v>60</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J11" s="8">
+      <c r="H11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="8">
         <v>90</v>
       </c>
+      <c r="J11" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K11" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L11" s="8" t="s">
         <v>283</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N11" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="8">
+      <c r="N11" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
         <v>3999</v>
       </c>
-      <c r="R11" s="8" t="s">
-        <v>13</v>
+      <c r="Q11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -2313,48 +2323,48 @@
       <c r="D12" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>bridesmaid-hairstyling-only-per-person</v>
+      <c r="E12" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="G12" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="H12" s="8">
+      <c r="G12" s="8">
         <v>30</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J12" s="8">
+      <c r="H12" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="8">
         <v>60</v>
       </c>
+      <c r="J12" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K12" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L12" s="8" t="s">
         <v>284</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N12" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="8">
+      <c r="N12" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
         <v>1999</v>
       </c>
-      <c r="R12" s="8" t="s">
-        <v>13</v>
+      <c r="Q12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -2370,48 +2380,48 @@
       <c r="D13" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>bridesmaid-makeup-hairstyling-per-person</v>
+      <c r="E13" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="G13" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="H13" s="8">
+      <c r="G13" s="8">
         <v>120</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J13" s="8">
+      <c r="H13" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="8">
         <v>180</v>
       </c>
+      <c r="J13" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K13" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L13" s="8" t="s">
         <v>285</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N13" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="8">
+      <c r="N13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
         <v>7000</v>
       </c>
-      <c r="R13" s="8" t="s">
-        <v>13</v>
+      <c r="Q13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -2427,48 +2437,48 @@
       <c r="D14" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>bridesmaid-makeup-only-per-person</v>
+      <c r="E14" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="H14" s="8">
+      <c r="G14" s="8">
         <v>30</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J14" s="8">
+      <c r="H14" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="8">
         <v>60</v>
       </c>
+      <c r="J14" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K14" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L14" s="8" t="s">
         <v>286</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N14" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="8">
+      <c r="N14" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
         <v>1400</v>
       </c>
-      <c r="R14" s="8" t="s">
-        <v>13</v>
+      <c r="Q14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -2484,48 +2494,48 @@
       <c r="D15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>bridesmaid-silver-lining-package</v>
+      <c r="E15" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="G15" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="H15" s="8">
+      <c r="G15" s="8">
         <v>30</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J15" s="8">
+      <c r="H15" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="8">
         <v>60</v>
       </c>
+      <c r="J15" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K15" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L15" s="8" t="s">
         <v>287</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N15" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="8">
+      <c r="N15" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
         <v>1999</v>
       </c>
-      <c r="R15" s="8" t="s">
-        <v>13</v>
+      <c r="Q15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -2541,51 +2551,51 @@
       <c r="D16" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>bridal-dressing</v>
+      <c r="E16" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G16" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="H16" s="8">
+      <c r="G16" s="8">
         <v>120</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J16" s="8">
+      <c r="H16" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="8">
         <v>180</v>
       </c>
+      <c r="J16" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K16" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L16" s="8" t="s">
         <v>288</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N16" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="8">
+      <c r="N16" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="8">
         <v>2999</v>
       </c>
-      <c r="R16" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>121</v>
       </c>
@@ -2598,51 +2608,51 @@
       <c r="D17" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>bridal-mehendi</v>
+      <c r="E17" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G17" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="H17" s="8">
+      <c r="G17" s="8">
         <v>30</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J17" s="8">
+      <c r="H17" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" s="8">
         <v>90</v>
       </c>
+      <c r="J17" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K17" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L17" s="8" t="s">
         <v>289</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N17" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="8">
+      <c r="N17" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="8">
         <v>1200</v>
       </c>
-      <c r="R17" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>121</v>
       </c>
@@ -2655,51 +2665,51 @@
       <c r="D18" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>bridal-mehendi-pro</v>
+      <c r="E18" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="F18" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G18" s="8">
+        <v>2</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="I18" s="8">
+        <v>3</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="H18" s="8">
-        <v>2</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="J18" s="8">
-        <v>3</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>194</v>
+      <c r="L18" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N18" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="8">
+      <c r="N18" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="8">
         <v>2000</v>
       </c>
-      <c r="R18" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>121</v>
       </c>
@@ -2712,51 +2722,51 @@
       <c r="D19" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>bridal-parties-mehendi-rate-per-person</v>
+      <c r="E19" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="G19" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="H19" s="8">
+      <c r="G19" s="8">
         <v>120</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J19" s="8">
+      <c r="H19" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" s="8">
         <v>180</v>
       </c>
+      <c r="J19" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K19" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L19" s="8" t="s">
         <v>290</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N19" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="8">
+      <c r="N19" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="8">
         <v>3999</v>
       </c>
-      <c r="R19" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>121</v>
       </c>
@@ -2769,51 +2779,51 @@
       <c r="D20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>saree-draping</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="F20" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="H20" s="8">
+      <c r="G20" s="8">
         <v>15</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J20" s="8">
+      <c r="H20" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" s="8">
         <v>30</v>
       </c>
+      <c r="J20" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K20" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="8" t="s">
         <v>291</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N20" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="8">
+      <c r="N20" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="8">
         <v>1250</v>
       </c>
-      <c r="R20" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>120</v>
       </c>
@@ -2826,51 +2836,51 @@
       <c r="D21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>event-hairstyling</v>
+      <c r="E21" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="G21" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="H21" s="8">
+      <c r="G21" s="8">
         <v>30</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J21" s="8">
+      <c r="H21" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" s="8">
         <v>60</v>
       </c>
+      <c r="J21" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K21" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L21" s="8" t="s">
         <v>277</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N21" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="8">
+      <c r="N21" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="8">
         <v>999</v>
       </c>
-      <c r="R21" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>120</v>
       </c>
@@ -2883,51 +2893,51 @@
       <c r="D22" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>makeup-hairstyling-photoshoot-package</v>
-      </c>
-      <c r="F22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H22" s="8">
+      <c r="G22" s="8">
         <v>30</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J22" s="8">
+      <c r="H22" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="8">
         <v>50</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L22" s="8" t="s">
+      <c r="J22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>291</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N22" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="8">
+      <c r="N22" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="8">
         <v>750</v>
       </c>
-      <c r="R22" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>120</v>
       </c>
@@ -2940,51 +2950,51 @@
       <c r="D23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>party-hairstyling</v>
-      </c>
-      <c r="F23" s="14" t="s">
+      <c r="E23" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H23" s="8">
+      <c r="G23" s="8">
         <v>15</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J23" s="8">
+      <c r="H23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="8">
         <v>25</v>
       </c>
+      <c r="J23" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K23" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L23" s="8" t="s">
         <v>278</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N23" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="8">
+      <c r="N23" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="8">
         <v>500</v>
       </c>
-      <c r="R23" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>120</v>
       </c>
@@ -2997,51 +3007,51 @@
       <c r="D24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>event-makeup</v>
+      <c r="E24" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G24" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="H24" s="8">
+      <c r="G24" s="8">
         <v>15</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J24" s="8">
+      <c r="H24" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="8">
         <v>30</v>
       </c>
+      <c r="J24" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K24" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L24" s="8" t="s">
         <v>292</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N24" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P24" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="8">
+      <c r="N24" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="8">
         <v>650</v>
       </c>
-      <c r="R24" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>120</v>
       </c>
@@ -3054,51 +3064,51 @@
       <c r="D25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>light-makeup</v>
+      <c r="E25" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G25" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="H25" s="8">
+      <c r="G25" s="8">
         <v>1.5</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="J25" s="8">
+      <c r="I25" s="8">
         <v>2.5</v>
       </c>
+      <c r="J25" s="8" t="s">
+        <v>274</v>
+      </c>
       <c r="K25" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="L25" s="8" t="s">
         <v>293</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N25" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P25" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="8">
+      <c r="N25" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="8">
         <v>12500</v>
       </c>
-      <c r="R25" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>120</v>
       </c>
@@ -3111,51 +3121,51 @@
       <c r="D26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>party-makeup</v>
+      <c r="E26" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G26" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H26" s="8">
+      <c r="G26" s="8">
         <v>15</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J26" s="8">
+      <c r="H26" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="8">
         <v>25</v>
       </c>
+      <c r="J26" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K26" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L26" s="8" t="s">
         <v>278</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N26" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P26" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="8">
+      <c r="N26" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="8">
         <v>400</v>
       </c>
-      <c r="R26" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>120</v>
       </c>
@@ -3168,51 +3178,51 @@
       <c r="D27" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>photoshoot-makeup</v>
+      <c r="E27" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G27" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H27" s="8">
+      <c r="G27" s="8">
         <v>10</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J27" s="8">
+      <c r="H27" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" s="8">
         <v>15</v>
       </c>
+      <c r="J27" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K27" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L27" s="8" t="s">
         <v>294</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N27" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P27" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="8">
+      <c r="N27" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="8">
         <v>200</v>
       </c>
-      <c r="R27" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>118</v>
       </c>
@@ -3225,51 +3235,51 @@
       <c r="D28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>anit-ageing-facial</v>
+      <c r="E28" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="G28" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="H28" s="8">
+      <c r="G28" s="8">
         <v>30</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J28" s="8">
+      <c r="H28" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" s="8">
         <v>45</v>
       </c>
+      <c r="J28" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K28" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L28" s="8" t="s">
         <v>295</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N28" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P28" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="8">
+      <c r="N28" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="8">
         <v>700</v>
       </c>
-      <c r="R28" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>118</v>
       </c>
@@ -3282,51 +3292,51 @@
       <c r="D29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>bleach-face-neck-</v>
+      <c r="E29" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G29" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="H29" s="8">
+      <c r="G29" s="8">
         <v>35</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J29" s="8">
+      <c r="H29" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="8">
         <v>45</v>
       </c>
+      <c r="J29" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K29" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L29" s="8" t="s">
         <v>296</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N29" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P29" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="8">
+      <c r="N29" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="8">
         <v>750</v>
       </c>
-      <c r="R29" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>118</v>
       </c>
@@ -3339,51 +3349,51 @@
       <c r="D30" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>detan-face-and-neck</v>
+      <c r="E30" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G30" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="H30" s="8">
+      <c r="G30" s="8">
         <v>25</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J30" s="8">
+      <c r="H30" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" s="8">
         <v>45</v>
       </c>
+      <c r="J30" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K30" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L30" s="8" t="s">
         <v>297</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N30" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P30" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="8">
+      <c r="N30" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="8">
         <v>1500</v>
       </c>
-      <c r="R30" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>118</v>
       </c>
@@ -3396,51 +3406,51 @@
       <c r="D31" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>facial</v>
+      <c r="E31" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G31" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="H31" s="8">
+      <c r="G31" s="8">
         <v>25</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J31" s="8">
+      <c r="H31" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I31" s="8">
         <v>45</v>
       </c>
+      <c r="J31" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K31" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L31" s="8" t="s">
         <v>298</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N31" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P31" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="8">
+      <c r="N31" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
+      <c r="P31" s="8">
         <v>1999</v>
       </c>
-      <c r="R31" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>118</v>
       </c>
@@ -3453,51 +3463,51 @@
       <c r="D32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>hair-colour</v>
-      </c>
-      <c r="F32" s="13" t="s">
+      <c r="E32" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="F32" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="H32" s="8">
+      <c r="G32" s="8">
         <v>30</v>
       </c>
-      <c r="I32" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J32" s="8">
+      <c r="H32" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I32" s="8">
         <v>60</v>
       </c>
+      <c r="J32" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K32" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L32" s="8" t="s">
         <v>299</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M32" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N32" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P32" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="8">
+      <c r="N32" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
+      <c r="P32" s="8">
         <v>2500</v>
       </c>
-      <c r="R32" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>118</v>
       </c>
@@ -3510,51 +3520,51 @@
       <c r="D33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>hair-colour-grey-to-black</v>
-      </c>
-      <c r="F33" s="13" t="s">
+      <c r="E33" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="H33" s="8">
+      <c r="G33" s="8">
         <v>20</v>
       </c>
-      <c r="I33" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J33" s="8">
+      <c r="H33" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" s="8">
         <v>40</v>
       </c>
+      <c r="J33" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K33" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L33" s="8" t="s">
         <v>300</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N33" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P33" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="8">
+      <c r="N33" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0</v>
+      </c>
+      <c r="P33" s="8">
         <v>2500</v>
       </c>
-      <c r="R33" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>118</v>
       </c>
@@ -3567,51 +3577,51 @@
       <c r="D34" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E34" s="4" t="str">
-        <f t="shared" ref="E34:E65" si="1">LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TRIM(C34)," ","-"),"'",""),"""",""),"/",""),"?",""),".",""),"&gt;",""),"&lt;",""),",",""),";",""),":",""),"[",""),"]",""),"}",""),"[",""),"{",""),"|",""),"\",""),"+",""),"=",""),"~",""),"`",""),"!",""),"@",""),"#",""),"$",""),"%",""),"^",""),"&amp;",""),"*",""),"(",""),")",""),"#",""),"'",""),"""",""),"---","-"),"--","-"))</f>
-        <v>hair-cut</v>
-      </c>
-      <c r="F34" s="13" t="s">
+      <c r="E34" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="F34" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="H34" s="8">
+      <c r="G34" s="8">
         <v>15</v>
       </c>
-      <c r="I34" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J34" s="8">
+      <c r="H34" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" s="8">
         <v>30</v>
       </c>
+      <c r="J34" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K34" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L34" s="8" t="s">
         <v>301</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N34" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O34" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P34" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="8">
+      <c r="N34" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0</v>
+      </c>
+      <c r="P34" s="8">
         <v>999</v>
       </c>
-      <c r="R34" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>118</v>
       </c>
@@ -3624,51 +3634,51 @@
       <c r="D35" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E35" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>hair-dresser-service</v>
-      </c>
-      <c r="F35" s="13" t="s">
+      <c r="E35" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="F35" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="H35" s="8">
+      <c r="G35" s="8">
         <v>20</v>
       </c>
-      <c r="I35" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J35" s="8">
+      <c r="H35" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I35" s="8">
         <v>30</v>
       </c>
+      <c r="J35" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K35" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L35" s="8" t="s">
         <v>302</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N35" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P35" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="8">
+      <c r="N35" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0</v>
+      </c>
+      <c r="P35" s="8">
         <v>499</v>
       </c>
-      <c r="R35" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q35" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>118</v>
       </c>
@@ -3681,51 +3691,51 @@
       <c r="D36" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E36" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>hair-extension</v>
-      </c>
-      <c r="F36" s="14" t="s">
+      <c r="E36" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="F36" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="H36" s="8">
+      <c r="G36" s="8">
         <v>30</v>
       </c>
-      <c r="I36" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J36" s="8">
+      <c r="H36" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" s="8">
         <v>60</v>
       </c>
+      <c r="J36" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K36" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L36" s="8" t="s">
         <v>303</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M36" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N36" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O36" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P36" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="8">
+      <c r="N36" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0</v>
+      </c>
+      <c r="P36" s="8">
         <v>2500</v>
       </c>
-      <c r="R36" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>118</v>
       </c>
@@ -3738,51 +3748,51 @@
       <c r="D37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>hair-highlight</v>
-      </c>
-      <c r="F37" s="13" t="s">
+      <c r="E37" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="F37" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="H37" s="8">
+      <c r="G37" s="8">
         <v>30</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J37" s="8">
+      <c r="H37" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I37" s="8">
         <v>60</v>
       </c>
+      <c r="J37" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K37" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L37" s="8" t="s">
         <v>304</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N37" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P37" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="8">
+      <c r="N37" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0</v>
+      </c>
+      <c r="P37" s="8">
         <v>2999</v>
       </c>
-      <c r="R37" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>118</v>
       </c>
@@ -3795,51 +3805,51 @@
       <c r="D38" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E38" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>hair-oil-massage</v>
-      </c>
-      <c r="F38" s="14" t="s">
+      <c r="E38" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="F38" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="H38" s="8">
+      <c r="G38" s="8">
         <v>25</v>
       </c>
-      <c r="I38" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J38" s="8">
+      <c r="H38" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I38" s="8">
         <v>45</v>
       </c>
+      <c r="J38" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K38" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L38" s="8" t="s">
         <v>204</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N38" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P38" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="8">
+      <c r="N38" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0</v>
+      </c>
+      <c r="P38" s="8">
         <v>2000</v>
       </c>
-      <c r="R38" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>118</v>
       </c>
@@ -3852,51 +3862,51 @@
       <c r="D39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>hair-spa</v>
+      <c r="E39" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="G39" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="H39" s="8">
+      <c r="G39" s="8">
         <v>90</v>
       </c>
-      <c r="I39" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J39" s="8">
+      <c r="H39" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I39" s="8">
         <v>120</v>
       </c>
+      <c r="J39" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K39" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L39" s="8" t="s">
         <v>305</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M39" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N39" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P39" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="8">
+      <c r="N39" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O39" s="4">
+        <v>0</v>
+      </c>
+      <c r="P39" s="8">
         <v>4500</v>
       </c>
-      <c r="R39" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>118</v>
       </c>
@@ -3909,51 +3919,51 @@
       <c r="D40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>hair-treatment</v>
+      <c r="E40" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="F40" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G40" s="8">
+        <v>45</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I40" s="8">
+        <v>60</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K40" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="H40" s="8">
-        <v>45</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J40" s="8">
-        <v>60</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>206</v>
+      <c r="L40" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M40" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N40" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O40" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P40" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="8">
+      <c r="N40" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O40" s="4">
+        <v>0</v>
+      </c>
+      <c r="P40" s="8">
         <v>1500</v>
       </c>
-      <c r="R40" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>118</v>
       </c>
@@ -3966,51 +3976,51 @@
       <c r="D41" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>hair-wash-dry</v>
+      <c r="E41" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="F41" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G41" s="8">
+        <v>60</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I41" s="8">
+        <v>90</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K41" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="H41" s="8">
-        <v>60</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J41" s="8">
-        <v>90</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>207</v>
+      <c r="L41" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N41" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P41" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="8">
+      <c r="N41" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O41" s="4">
+        <v>0</v>
+      </c>
+      <c r="P41" s="8">
         <v>1300</v>
       </c>
-      <c r="R41" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>118</v>
       </c>
@@ -4023,48 +4033,48 @@
       <c r="D42" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E42" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>half-arm-waxing</v>
-      </c>
-      <c r="F42" s="8" t="s">
+      <c r="E42" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="H42" s="8">
+      <c r="G42" s="8">
         <v>30</v>
       </c>
-      <c r="I42" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J42" s="8">
+      <c r="H42" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I42" s="8">
         <v>45</v>
       </c>
+      <c r="J42" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K42" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L42" s="8" t="s">
         <v>208</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M42" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N42" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O42" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P42" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="8">
+      <c r="N42" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O42" s="4">
+        <v>0</v>
+      </c>
+      <c r="P42" s="8">
         <v>2000</v>
       </c>
-      <c r="R42" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>118</v>
       </c>
@@ -4077,51 +4087,51 @@
       <c r="D43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>keratin-hair-treatment</v>
+      <c r="E43" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="F43" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="G43" s="8">
+        <v>60</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I43" s="8">
+        <v>1</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="K43" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="G43" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="H43" s="8">
-        <v>60</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J43" s="8">
-        <v>1</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>209</v>
+      <c r="L43" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N43" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P43" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="8">
+      <c r="N43" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O43" s="4">
+        <v>0</v>
+      </c>
+      <c r="P43" s="8">
         <v>1800</v>
       </c>
-      <c r="R43" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q43" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>118</v>
       </c>
@@ -4134,51 +4144,51 @@
       <c r="D44" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E44" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>permanent-hair-curl</v>
+      <c r="E44" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G44" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H44" s="8">
+      <c r="G44" s="8">
         <v>15</v>
       </c>
-      <c r="I44" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J44" s="8">
+      <c r="H44" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I44" s="8">
         <v>30</v>
       </c>
+      <c r="J44" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K44" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L44" s="8" t="s">
         <v>306</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N44" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O44" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P44" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="8">
+      <c r="N44" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O44" s="4">
+        <v>0</v>
+      </c>
+      <c r="P44" s="8">
         <v>200</v>
       </c>
-      <c r="R44" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>118</v>
       </c>
@@ -4191,51 +4201,51 @@
       <c r="D45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>permanent-hair-straight</v>
+      <c r="E45" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G45" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H45" s="8">
+      <c r="G45" s="8">
         <v>10</v>
       </c>
-      <c r="I45" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J45" s="8">
+      <c r="H45" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I45" s="8">
         <v>15</v>
       </c>
+      <c r="J45" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K45" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L45" s="8" t="s">
         <v>307</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M45" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N45" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O45" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P45" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="8">
+      <c r="N45" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O45" s="4">
+        <v>0</v>
+      </c>
+      <c r="P45" s="8">
         <v>100</v>
       </c>
-      <c r="R45" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>118</v>
       </c>
@@ -4248,51 +4258,51 @@
       <c r="D46" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>rebonding</v>
+      <c r="E46" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G46" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H46" s="8">
+      <c r="G46" s="8">
         <v>15</v>
       </c>
-      <c r="I46" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J46" s="8">
+      <c r="H46" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I46" s="8">
         <v>30</v>
       </c>
+      <c r="J46" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K46" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L46" s="8" t="s">
         <v>308</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M46" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N46" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O46" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P46" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="8">
+      <c r="N46" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O46" s="4">
+        <v>0</v>
+      </c>
+      <c r="P46" s="8">
         <v>1250</v>
       </c>
-      <c r="R46" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q46" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>118</v>
       </c>
@@ -4305,51 +4315,51 @@
       <c r="D47" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E47" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>artificial-nail-per-finger</v>
+      <c r="E47" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="F47" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G47" s="8">
+        <v>15</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I47" s="8">
+        <v>30</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K47" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="G47" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="H47" s="8">
-        <v>15</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J47" s="8">
-        <v>30</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>210</v>
+      <c r="L47" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M47" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N47" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O47" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P47" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="8">
+      <c r="N47" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O47" s="4">
+        <v>0</v>
+      </c>
+      <c r="P47" s="8">
         <v>500</v>
       </c>
-      <c r="R47" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>118</v>
       </c>
@@ -4362,51 +4372,51 @@
       <c r="D48" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E48" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>bleach-arms-legs</v>
+      <c r="E48" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G48" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="H48" s="8">
+      <c r="G48" s="8">
         <v>15</v>
       </c>
-      <c r="I48" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J48" s="8">
+      <c r="H48" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I48" s="8">
         <v>30</v>
       </c>
+      <c r="J48" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K48" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L48" s="8" t="s">
         <v>309</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M48" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N48" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O48" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P48" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="8">
+      <c r="N48" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O48" s="4">
+        <v>0</v>
+      </c>
+      <c r="P48" s="8">
         <v>300</v>
       </c>
-      <c r="R48" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>118</v>
       </c>
@@ -4419,51 +4429,51 @@
       <c r="D49" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E49" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>bleach-arms</v>
+      <c r="E49" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G49" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="H49" s="8">
+      <c r="G49" s="8">
         <v>30</v>
       </c>
-      <c r="I49" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J49" s="8">
+      <c r="H49" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I49" s="8">
         <v>30</v>
       </c>
+      <c r="J49" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K49" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L49" s="8" t="s">
         <v>284</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M49" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N49" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O49" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P49" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="8">
+      <c r="N49" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O49" s="4">
+        <v>0</v>
+      </c>
+      <c r="P49" s="8">
         <v>1800</v>
       </c>
-      <c r="R49" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q49" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>118</v>
       </c>
@@ -4476,51 +4486,51 @@
       <c r="D50" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E50" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>bleach-legs</v>
+      <c r="E50" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="G50" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="H50" s="8">
+      <c r="G50" s="8">
         <v>100</v>
       </c>
-      <c r="I50" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J50" s="8">
+      <c r="H50" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I50" s="8">
         <v>180</v>
       </c>
+      <c r="J50" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K50" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L50" s="8" t="s">
         <v>310</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M50" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N50" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O50" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P50" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="8">
+      <c r="N50" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O50" s="4">
+        <v>0</v>
+      </c>
+      <c r="P50" s="8">
         <v>4500</v>
       </c>
-      <c r="R50" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q50" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>118</v>
       </c>
@@ -4533,51 +4543,51 @@
       <c r="D51" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>cut-file-polish-nails</v>
+      <c r="E51" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G51" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="H51" s="8">
+      <c r="G51" s="8">
         <v>20</v>
       </c>
-      <c r="I51" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J51" s="8">
+      <c r="H51" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I51" s="8">
         <v>40</v>
       </c>
+      <c r="J51" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K51" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L51" s="8" t="s">
         <v>311</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M51" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N51" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O51" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P51" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="8">
+      <c r="N51" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O51" s="4">
+        <v>0</v>
+      </c>
+      <c r="P51" s="8">
         <v>999</v>
       </c>
-      <c r="R51" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q51" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>118</v>
       </c>
@@ -4590,51 +4600,51 @@
       <c r="D52" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E52" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>detan-arms-legs</v>
+      <c r="E52" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G52" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="H52" s="8">
+      <c r="G52" s="8">
         <v>20</v>
       </c>
-      <c r="I52" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J52" s="8">
+      <c r="H52" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I52" s="8">
         <v>40</v>
       </c>
+      <c r="J52" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K52" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L52" s="8" t="s">
         <v>311</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M52" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N52" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O52" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P52" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="8">
+      <c r="N52" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O52" s="4">
+        <v>0</v>
+      </c>
+      <c r="P52" s="8">
         <v>1300</v>
       </c>
-      <c r="R52" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>118</v>
       </c>
@@ -4647,51 +4657,51 @@
       <c r="D53" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E53" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>detan-arms</v>
+      <c r="E53" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G53" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="H53" s="8">
+      <c r="G53" s="8">
         <v>40</v>
       </c>
-      <c r="I53" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J53" s="8">
+      <c r="H53" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I53" s="8">
         <v>80</v>
       </c>
+      <c r="J53" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K53" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L53" s="8" t="s">
         <v>311</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M53" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N53" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O53" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P53" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="8">
+      <c r="N53" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O53" s="4">
+        <v>0</v>
+      </c>
+      <c r="P53" s="8">
         <v>1999</v>
       </c>
-      <c r="R53" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>118</v>
       </c>
@@ -4704,51 +4714,51 @@
       <c r="D54" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E54" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>detan-legs</v>
+      <c r="E54" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G54" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="H54" s="8">
+      <c r="G54" s="8">
         <v>25</v>
       </c>
-      <c r="I54" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J54" s="8">
+      <c r="H54" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I54" s="8">
         <v>45</v>
       </c>
+      <c r="J54" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K54" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L54" s="8" t="s">
         <v>297</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M54" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N54" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O54" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P54" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="8">
+      <c r="N54" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O54" s="4">
+        <v>0</v>
+      </c>
+      <c r="P54" s="8">
         <v>1500</v>
       </c>
-      <c r="R54" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>118</v>
       </c>
@@ -4761,51 +4771,51 @@
       <c r="D55" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E55" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>detan-facial</v>
+      <c r="E55" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G55" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="H55" s="8">
+      <c r="G55" s="8">
         <v>45</v>
       </c>
-      <c r="I55" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J55" s="8">
+      <c r="H55" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I55" s="8">
         <v>60</v>
       </c>
+      <c r="J55" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K55" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L55" s="8" t="s">
         <v>297</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M55" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N55" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O55" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P55" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="8">
+      <c r="N55" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O55" s="4">
+        <v>0</v>
+      </c>
+      <c r="P55" s="8">
         <v>2800</v>
       </c>
-      <c r="R55" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q55" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>118</v>
       </c>
@@ -4818,51 +4828,51 @@
       <c r="D56" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E56" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>fake-nail-per-finger</v>
+      <c r="E56" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G56" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="H56" s="8">
+      <c r="G56" s="8">
         <v>5</v>
       </c>
-      <c r="I56" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J56" s="8">
+      <c r="H56" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I56" s="8">
         <v>10</v>
       </c>
+      <c r="J56" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K56" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L56" s="8" t="s">
         <v>312</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M56" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N56" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O56" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P56" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="8">
+      <c r="N56" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O56" s="4">
+        <v>0</v>
+      </c>
+      <c r="P56" s="8">
         <v>75</v>
       </c>
-      <c r="R56" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q56" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>118</v>
       </c>
@@ -4875,51 +4885,51 @@
       <c r="D57" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>foot-massage</v>
+      <c r="E57" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G57" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="H57" s="8">
+      <c r="G57" s="8">
         <v>5</v>
       </c>
-      <c r="I57" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J57" s="8">
+      <c r="H57" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I57" s="8">
         <v>10</v>
       </c>
+      <c r="J57" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K57" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L57" s="8" t="s">
         <v>312</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M57" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N57" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O57" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P57" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="8">
+      <c r="N57" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O57" s="4">
+        <v>0</v>
+      </c>
+      <c r="P57" s="8">
         <v>75</v>
       </c>
-      <c r="R57" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q57" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>118</v>
       </c>
@@ -4932,51 +4942,51 @@
       <c r="D58" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E58" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>nail-art-both-hand</v>
+      <c r="E58" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="F58" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G58" s="8">
+        <v>30</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I58" s="8">
+        <v>60</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K58" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="G58" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="H58" s="8">
-        <v>30</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J58" s="8">
-        <v>60</v>
-      </c>
-      <c r="K58" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L58" s="8" t="s">
-        <v>215</v>
+      <c r="L58" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M58" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N58" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O58" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P58" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="8">
+      <c r="N58" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O58" s="4">
+        <v>0</v>
+      </c>
+      <c r="P58" s="8">
         <v>1400</v>
       </c>
-      <c r="R58" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q58" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>118</v>
       </c>
@@ -4989,51 +4999,51 @@
       <c r="D59" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E59" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>nail-art-per-hand</v>
+      <c r="E59" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="F59" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G59" s="8">
+        <v>30</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I59" s="8">
+        <v>60</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K59" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="G59" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="H59" s="8">
-        <v>30</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J59" s="8">
-        <v>60</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L59" s="8" t="s">
-        <v>216</v>
+      <c r="L59" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M59" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N59" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O59" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P59" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="8">
+      <c r="N59" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O59" s="4">
+        <v>0</v>
+      </c>
+      <c r="P59" s="8">
         <v>1999</v>
       </c>
-      <c r="R59" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q59" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>118</v>
       </c>
@@ -5046,51 +5056,51 @@
       <c r="D60" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E60" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>nail-extension-per-finger</v>
+      <c r="E60" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G60" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H60" s="8">
+      <c r="G60" s="8">
         <v>10</v>
       </c>
-      <c r="I60" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J60" s="8">
+      <c r="H60" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I60" s="8">
         <v>15</v>
       </c>
+      <c r="J60" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K60" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L60" s="8" t="s">
         <v>306</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M60" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N60" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O60" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P60" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="8">
+      <c r="N60" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O60" s="4">
+        <v>0</v>
+      </c>
+      <c r="P60" s="8">
         <v>150</v>
       </c>
-      <c r="R60" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>118</v>
       </c>
@@ -5103,51 +5113,51 @@
       <c r="D61" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E61" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>pedicure</v>
+      <c r="E61" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G61" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H61" s="8">
+      <c r="G61" s="8">
         <v>10</v>
       </c>
-      <c r="I61" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J61" s="8">
+      <c r="H61" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I61" s="8">
         <v>15</v>
       </c>
+      <c r="J61" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K61" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L61" s="8" t="s">
         <v>279</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M61" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N61" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O61" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P61" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="8">
+      <c r="N61" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O61" s="4">
+        <v>0</v>
+      </c>
+      <c r="P61" s="8">
         <v>150</v>
       </c>
-      <c r="R61" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q61" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>118</v>
       </c>
@@ -5160,51 +5170,51 @@
       <c r="D62" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>ironing</v>
+      <c r="E62" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="F62" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G62" s="8">
+        <v>60</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I62" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="K62" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="G62" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="H62" s="8">
-        <v>60</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J62" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="K62" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="L62" s="8" t="s">
-        <v>217</v>
+      <c r="L62" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M62" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N62" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O62" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P62" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="8">
+      <c r="N62" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O62" s="4">
+        <v>0</v>
+      </c>
+      <c r="P62" s="8">
         <v>2000</v>
       </c>
-      <c r="R62" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q62" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>118</v>
       </c>
@@ -5217,51 +5227,51 @@
       <c r="D63" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>bikini-waxing</v>
+      <c r="E63" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="G63" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="H63" s="8">
+      <c r="G63" s="8">
         <v>100</v>
       </c>
-      <c r="I63" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J63" s="8">
+      <c r="H63" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I63" s="8">
         <v>180</v>
       </c>
+      <c r="J63" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K63" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L63" s="8" t="s">
         <v>313</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M63" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N63" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O63" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P63" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="8">
+      <c r="N63" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O63" s="4">
+        <v>0</v>
+      </c>
+      <c r="P63" s="8">
         <v>4500</v>
       </c>
-      <c r="R63" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q63" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>118</v>
       </c>
@@ -5274,51 +5284,51 @@
       <c r="D64" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E64" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>chinjawline-threading</v>
+      <c r="E64" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G64" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="H64" s="8">
+      <c r="G64" s="8">
         <v>15</v>
       </c>
-      <c r="I64" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J64" s="8">
+      <c r="H64" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I64" s="8">
         <v>30</v>
       </c>
+      <c r="J64" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K64" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L64" s="8" t="s">
         <v>314</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M64" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N64" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O64" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P64" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="8">
+      <c r="N64" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O64" s="4">
+        <v>0</v>
+      </c>
+      <c r="P64" s="8">
         <v>799</v>
       </c>
-      <c r="R64" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q64" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>118</v>
       </c>
@@ -5331,51 +5341,51 @@
       <c r="D65" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E65" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>eyebrowsâ threading</v>
+      <c r="E65" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G65" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="H65" s="8">
+      <c r="G65" s="8">
         <v>30</v>
       </c>
-      <c r="I65" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J65" s="8">
+      <c r="H65" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I65" s="8">
         <v>60</v>
       </c>
+      <c r="J65" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K65" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L65" s="8" t="s">
         <v>292</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M65" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N65" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O65" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P65" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="8">
+      <c r="N65" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O65" s="4">
+        <v>0</v>
+      </c>
+      <c r="P65" s="8">
         <v>1200</v>
       </c>
-      <c r="R65" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q65" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>118</v>
       </c>
@@ -5388,51 +5398,51 @@
       <c r="D66" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E66" s="4" t="str">
-        <f t="shared" ref="E66:E97" si="2">LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TRIM(C66)," ","-"),"'",""),"""",""),"/",""),"?",""),".",""),"&gt;",""),"&lt;",""),",",""),";",""),":",""),"[",""),"]",""),"}",""),"[",""),"{",""),"|",""),"\",""),"+",""),"=",""),"~",""),"`",""),"!",""),"@",""),"#",""),"$",""),"%",""),"^",""),"&amp;",""),"*",""),"(",""),")",""),"#",""),"'",""),"""",""),"---","-"),"--","-"))</f>
-        <v>face-cleansing</v>
-      </c>
-      <c r="F66" s="13" t="s">
+      <c r="E66" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="F66" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="H66" s="8">
+      <c r="G66" s="8">
         <v>30</v>
       </c>
-      <c r="I66" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J66" s="8">
+      <c r="H66" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I66" s="8">
         <v>90</v>
       </c>
+      <c r="J66" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K66" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L66" s="8" t="s">
         <v>315</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M66" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N66" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O66" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P66" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="8">
+      <c r="N66" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O66" s="4">
+        <v>0</v>
+      </c>
+      <c r="P66" s="8">
         <v>2999</v>
       </c>
-      <c r="R66" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q66" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>118</v>
       </c>
@@ -5445,51 +5455,51 @@
       <c r="D67" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E67" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>forehead-threading</v>
+      <c r="E67" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G67" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="H67" s="8">
+      <c r="G67" s="8">
         <v>5</v>
       </c>
-      <c r="I67" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J67" s="8">
+      <c r="H67" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I67" s="8">
         <v>10</v>
       </c>
+      <c r="J67" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K67" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L67" s="8" t="s">
         <v>312</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M67" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N67" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O67" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P67" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="8">
+      <c r="N67" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O67" s="4">
+        <v>0</v>
+      </c>
+      <c r="P67" s="8">
         <v>75</v>
       </c>
-      <c r="R67" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q67" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>118</v>
       </c>
@@ -5502,51 +5512,51 @@
       <c r="D68" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E68" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>full-arm-waxing</v>
-      </c>
-      <c r="F68" s="14" t="s">
+      <c r="E68" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="F68" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="H68" s="8">
+      <c r="G68" s="8">
         <v>10</v>
       </c>
-      <c r="I68" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J68" s="8">
+      <c r="H68" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I68" s="8">
         <v>15</v>
       </c>
+      <c r="J68" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K68" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L68" s="8" t="s">
         <v>312</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M68" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N68" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O68" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P68" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="8">
+      <c r="N68" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O68" s="4">
+        <v>0</v>
+      </c>
+      <c r="P68" s="8">
         <v>150</v>
       </c>
-      <c r="R68" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q68" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>118</v>
       </c>
@@ -5559,51 +5569,51 @@
       <c r="D69" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E69" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>full-body-waxing</v>
-      </c>
-      <c r="F69" s="13" t="s">
+      <c r="E69" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="F69" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="H69" s="8">
+      <c r="G69" s="8">
         <v>10</v>
       </c>
-      <c r="I69" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J69" s="8">
+      <c r="H69" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I69" s="8">
         <v>15</v>
       </c>
+      <c r="J69" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K69" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L69" s="8" t="s">
         <v>312</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M69" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N69" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O69" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P69" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="8">
+      <c r="N69" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O69" s="4">
+        <v>0</v>
+      </c>
+      <c r="P69" s="8">
         <v>150</v>
       </c>
-      <c r="R69" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q69" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>118</v>
       </c>
@@ -5616,51 +5626,51 @@
       <c r="D70" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E70" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>full-face-threading</v>
-      </c>
-      <c r="F70" s="13" t="s">
+      <c r="E70" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="F70" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="H70" s="8">
+      <c r="G70" s="8">
         <v>30</v>
       </c>
-      <c r="I70" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J70" s="8">
+      <c r="H70" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I70" s="8">
         <v>60</v>
       </c>
+      <c r="J70" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K70" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L70" s="8" t="s">
         <v>312</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M70" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N70" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O70" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P70" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="8">
+      <c r="N70" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O70" s="4">
+        <v>0</v>
+      </c>
+      <c r="P70" s="8">
         <v>400</v>
       </c>
-      <c r="R70" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q70" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>118</v>
       </c>
@@ -5673,51 +5683,51 @@
       <c r="D71" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E71" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>full-leg-waxing</v>
-      </c>
-      <c r="F71" s="14" t="s">
+      <c r="E71" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="F71" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="H71" s="8">
+      <c r="G71" s="8">
         <v>30</v>
       </c>
-      <c r="I71" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J71" s="8">
+      <c r="H71" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I71" s="8">
         <v>60</v>
       </c>
+      <c r="J71" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K71" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L71" s="8" t="s">
         <v>311</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M71" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N71" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O71" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P71" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="8">
+      <c r="N71" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O71" s="4">
+        <v>0</v>
+      </c>
+      <c r="P71" s="8">
         <v>800</v>
       </c>
-      <c r="R71" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q71" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>118</v>
       </c>
@@ -5730,51 +5740,51 @@
       <c r="D72" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E72" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>half-leg-waxing</v>
+      <c r="E72" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="F72" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="G72" s="8">
+        <v>60</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I72" s="8">
+        <v>1</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="K72" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="G72" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="H72" s="8">
-        <v>60</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J72" s="8">
-        <v>1</v>
-      </c>
-      <c r="K72" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="L72" s="8" t="s">
-        <v>220</v>
+      <c r="L72" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M72" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N72" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O72" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P72" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="8">
+      <c r="N72" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O72" s="4">
+        <v>0</v>
+      </c>
+      <c r="P72" s="8">
         <v>1500</v>
       </c>
-      <c r="R72" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q72" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>118</v>
       </c>
@@ -5787,51 +5797,51 @@
       <c r="D73" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E73" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>lower-lip-threading</v>
+      <c r="E73" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="F73" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G73" s="8">
+        <v>1</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="I73" s="8">
+        <v>2</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="K73" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="G73" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="H73" s="8">
-        <v>1</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="J73" s="8">
-        <v>2</v>
-      </c>
-      <c r="K73" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="L73" s="8" t="s">
-        <v>221</v>
+      <c r="L73" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M73" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N73" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O73" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P73" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="8">
+      <c r="N73" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O73" s="4">
+        <v>0</v>
+      </c>
+      <c r="P73" s="8">
         <v>6500</v>
       </c>
-      <c r="R73" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q73" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>118</v>
       </c>
@@ -5844,51 +5854,51 @@
       <c r="D74" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E74" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>manicure</v>
+      <c r="E74" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="F74" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G74" s="8">
+        <v>1</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="I74" s="8">
+        <v>2</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="K74" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="G74" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="H74" s="8">
-        <v>1</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="J74" s="8">
-        <v>2</v>
-      </c>
-      <c r="K74" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="L74" s="8" t="s">
-        <v>222</v>
+      <c r="L74" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M74" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N74" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O74" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P74" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="8">
+      <c r="N74" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O74" s="4">
+        <v>0</v>
+      </c>
+      <c r="P74" s="8">
         <v>9999</v>
       </c>
-      <c r="R74" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q74" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>118</v>
       </c>
@@ -5901,51 +5911,51 @@
       <c r="D75" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E75" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>nose-cleansing</v>
+      <c r="E75" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G75" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H75" s="8">
+      <c r="G75" s="8">
         <v>10</v>
       </c>
-      <c r="I75" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J75" s="8">
+      <c r="H75" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I75" s="8">
         <v>20</v>
       </c>
+      <c r="J75" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K75" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L75" s="8" t="s">
         <v>282</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M75" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N75" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O75" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P75" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="8">
+      <c r="N75" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O75" s="4">
+        <v>0</v>
+      </c>
+      <c r="P75" s="8">
         <v>500</v>
       </c>
-      <c r="R75" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q75" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>118</v>
       </c>
@@ -5958,51 +5968,51 @@
       <c r="D76" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E76" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>under-arm-waxing</v>
-      </c>
-      <c r="F76" s="8" t="s">
+      <c r="E76" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="G76" s="16" t="s">
+      <c r="F76" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="H76" s="8">
+      <c r="G76" s="8">
         <v>2</v>
       </c>
-      <c r="I76" s="8" t="s">
+      <c r="H76" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="J76" s="8">
+      <c r="I76" s="8">
         <v>4</v>
       </c>
+      <c r="J76" s="8" t="s">
+        <v>274</v>
+      </c>
       <c r="K76" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="L76" s="8" t="s">
         <v>316</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M76" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N76" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O76" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P76" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="8">
+      <c r="N76" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O76" s="4">
+        <v>0</v>
+      </c>
+      <c r="P76" s="8">
         <v>2500</v>
       </c>
-      <c r="R76" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q76" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>118</v>
       </c>
@@ -6015,51 +6025,51 @@
       <c r="D77" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E77" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>upper-lip-threading</v>
+      <c r="E77" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G77" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H77" s="8">
+      <c r="G77" s="8">
         <v>2</v>
       </c>
-      <c r="I77" s="8" t="s">
+      <c r="H77" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="J77" s="8">
+      <c r="I77" s="8">
         <v>4</v>
       </c>
+      <c r="J77" s="8" t="s">
+        <v>274</v>
+      </c>
       <c r="K77" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="L77" s="8" t="s">
         <v>317</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M77" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N77" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O77" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P77" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="8">
+      <c r="N77" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O77" s="4">
+        <v>0</v>
+      </c>
+      <c r="P77" s="8">
         <v>8999</v>
       </c>
-      <c r="R77" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q77" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>118</v>
       </c>
@@ -6072,51 +6082,51 @@
       <c r="D78" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E78" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>whitening-facial</v>
+      <c r="E78" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G78" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H78" s="8">
+      <c r="G78" s="8">
         <v>60</v>
       </c>
-      <c r="I78" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J78" s="8">
-        <v>1</v>
+      <c r="H78" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I78" s="8">
+        <v>1</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="L78" s="8" t="s">
         <v>318</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M78" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N78" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O78" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P78" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="8">
+      <c r="N78" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O78" s="4">
+        <v>0</v>
+      </c>
+      <c r="P78" s="8">
         <v>1500</v>
       </c>
-      <c r="R78" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q78" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>119</v>
       </c>
@@ -6129,51 +6139,51 @@
       <c r="D79" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E79" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>men-back-trimming</v>
+      <c r="E79" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="G79" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="H79" s="8">
+      <c r="G79" s="8">
         <v>30</v>
       </c>
-      <c r="I79" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J79" s="8">
+      <c r="H79" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I79" s="8">
         <v>45</v>
       </c>
+      <c r="J79" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K79" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L79" s="8" t="s">
         <v>319</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M79" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N79" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O79" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P79" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="8">
+      <c r="N79" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O79" s="4">
+        <v>0</v>
+      </c>
+      <c r="P79" s="8">
         <v>1200</v>
       </c>
-      <c r="R79" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q79" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>119</v>
       </c>
@@ -6186,51 +6196,51 @@
       <c r="D80" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E80" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>men-in-between-brows-wax</v>
+      <c r="E80" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="F80" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G80" s="8">
+        <v>15</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I80" s="8">
+        <v>30</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K80" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="G80" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="H80" s="8">
-        <v>15</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J80" s="8">
-        <v>30</v>
-      </c>
-      <c r="K80" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L80" s="8" t="s">
-        <v>224</v>
+      <c r="L80" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M80" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N80" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="O80" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P80" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="8">
+      <c r="N80" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O80" s="4">
+        <v>0</v>
+      </c>
+      <c r="P80" s="8">
         <v>250</v>
       </c>
-      <c r="R80" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q80" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>119</v>
       </c>
@@ -6243,51 +6253,51 @@
       <c r="D81" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E81" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>men-legs-trimming</v>
+      <c r="E81" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="F81" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G81" s="8">
+        <v>15</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I81" s="8">
+        <v>30</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K81" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="G81" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="H81" s="8">
-        <v>15</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J81" s="8">
-        <v>30</v>
-      </c>
-      <c r="K81" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L81" s="8" t="s">
-        <v>224</v>
+      <c r="L81" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N81" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O81" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P81" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="8">
+        <v>335</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O81" s="4">
+        <v>0</v>
+      </c>
+      <c r="P81" s="8">
         <v>200</v>
       </c>
-      <c r="R81" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q81" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>119</v>
       </c>
@@ -6300,51 +6310,51 @@
       <c r="D82" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E82" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>men-shave</v>
+      <c r="E82" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="F82" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G82" s="8">
+        <v>100</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I82" s="8">
+        <v>120</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K82" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="G82" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="H82" s="8">
-        <v>100</v>
-      </c>
-      <c r="I82" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J82" s="8">
-        <v>120</v>
-      </c>
-      <c r="K82" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L82" s="8" t="s">
-        <v>225</v>
+      <c r="L82" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N82" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O82" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P82" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="8">
+        <v>335</v>
+      </c>
+      <c r="N82" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O82" s="4">
+        <v>0</v>
+      </c>
+      <c r="P82" s="8">
         <v>1999</v>
       </c>
-      <c r="R82" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q82" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>119</v>
       </c>
@@ -6357,51 +6367,51 @@
       <c r="D83" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E83" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>men-under-arm-trimming</v>
+      <c r="E83" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="F83" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G83" s="8">
+        <v>30</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I83" s="8">
+        <v>60</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K83" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="G83" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="H83" s="8">
-        <v>30</v>
-      </c>
-      <c r="I83" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J83" s="8">
-        <v>60</v>
-      </c>
-      <c r="K83" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L83" s="8" t="s">
-        <v>226</v>
+      <c r="L83" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N83" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O83" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P83" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="8">
+        <v>335</v>
+      </c>
+      <c r="N83" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O83" s="4">
+        <v>0</v>
+      </c>
+      <c r="P83" s="8">
         <v>1999</v>
       </c>
-      <c r="R83" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q83" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>119</v>
       </c>
@@ -6414,51 +6424,51 @@
       <c r="D84" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E84" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>best-friend-package</v>
+      <c r="E84" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G84" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="H84" s="8">
+      <c r="G84" s="8">
         <v>40</v>
       </c>
-      <c r="I84" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J84" s="8">
+      <c r="H84" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I84" s="8">
         <v>45</v>
       </c>
+      <c r="J84" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K84" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L84" s="8" t="s">
         <v>320</v>
       </c>
+      <c r="L84" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="M84" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N84" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O84" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P84" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="8">
+        <v>335</v>
+      </c>
+      <c r="N84" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O84" s="4">
+        <v>0</v>
+      </c>
+      <c r="P84" s="8">
         <v>499</v>
       </c>
-      <c r="R84" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q84" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R84" s="4"/>
+      <c r="S84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>119</v>
       </c>
@@ -6471,51 +6481,51 @@
       <c r="D85" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E85" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>groom-gold-package</v>
-      </c>
-      <c r="F85" s="14" t="s">
+      <c r="E85" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="G85" s="8" t="s">
+      <c r="F85" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="H85" s="8">
+      <c r="G85" s="8">
         <v>30</v>
       </c>
-      <c r="I85" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J85" s="8">
+      <c r="H85" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I85" s="8">
         <v>60</v>
       </c>
+      <c r="J85" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K85" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L85" s="8" t="s">
         <v>321</v>
       </c>
+      <c r="L85" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="M85" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N85" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O85" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P85" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="8">
+        <v>335</v>
+      </c>
+      <c r="N85" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O85" s="4">
+        <v>0</v>
+      </c>
+      <c r="P85" s="8">
         <v>1500</v>
       </c>
-      <c r="R85" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q85" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R85" s="4"/>
+      <c r="S85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>119</v>
       </c>
@@ -6528,51 +6538,51 @@
       <c r="D86" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E86" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>groom-silver-package</v>
-      </c>
-      <c r="F86" s="13" t="s">
+      <c r="E86" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="F86" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="H86" s="8">
+      <c r="G86" s="8">
         <v>30</v>
       </c>
-      <c r="I86" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J86" s="8">
+      <c r="H86" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I86" s="8">
         <v>60</v>
       </c>
+      <c r="J86" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K86" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L86" s="8" t="s">
         <v>322</v>
       </c>
+      <c r="L86" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="M86" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N86" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O86" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P86" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="8">
+        <v>335</v>
+      </c>
+      <c r="N86" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O86" s="4">
+        <v>0</v>
+      </c>
+      <c r="P86" s="8">
         <v>2999</v>
       </c>
-      <c r="R86" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q86" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R86" s="4"/>
+      <c r="S86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>119</v>
       </c>
@@ -6585,51 +6595,51 @@
       <c r="D87" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E87" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>men-head-massage</v>
+      <c r="E87" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="F87" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G87" s="8">
+        <v>20</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I87" s="8">
+        <v>30</v>
+      </c>
+      <c r="J87" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K87" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="G87" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H87" s="8">
-        <v>20</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J87" s="8">
-        <v>30</v>
-      </c>
-      <c r="K87" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L87" s="15" t="s">
-        <v>228</v>
+      <c r="L87" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N87" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O87" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P87" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="8">
+        <v>335</v>
+      </c>
+      <c r="N87" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O87" s="4">
+        <v>0</v>
+      </c>
+      <c r="P87" s="8">
         <v>500</v>
       </c>
-      <c r="R87" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q87" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R87" s="4"/>
+      <c r="S87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>119</v>
       </c>
@@ -6642,51 +6652,51 @@
       <c r="D88" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E88" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>men-arms-trimming</v>
+      <c r="E88" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="G88" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="H88" s="8">
+      <c r="G88" s="8">
         <v>15</v>
       </c>
-      <c r="I88" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J88" s="8">
+      <c r="H88" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I88" s="8">
         <v>30</v>
       </c>
+      <c r="J88" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K88" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L88" s="8" t="s">
         <v>323</v>
       </c>
+      <c r="L88" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="M88" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N88" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O88" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P88" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="8">
+        <v>335</v>
+      </c>
+      <c r="N88" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O88" s="4">
+        <v>0</v>
+      </c>
+      <c r="P88" s="8">
         <v>1000</v>
       </c>
-      <c r="R88" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q88" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R88" s="4"/>
+      <c r="S88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>119</v>
       </c>
@@ -6699,51 +6709,51 @@
       <c r="D89" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E89" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>men-arms-waxing</v>
+      <c r="E89" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="G89" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="H89" s="8">
+      <c r="G89" s="8">
         <v>15</v>
       </c>
-      <c r="I89" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J89" s="8">
+      <c r="H89" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I89" s="8">
         <v>30</v>
       </c>
-      <c r="K89" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L89" s="15" t="s">
+      <c r="J89" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K89" s="15" t="s">
         <v>324</v>
       </c>
+      <c r="L89" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="M89" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N89" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O89" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P89" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="8">
+        <v>335</v>
+      </c>
+      <c r="N89" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O89" s="4">
+        <v>0</v>
+      </c>
+      <c r="P89" s="8">
         <v>500</v>
       </c>
-      <c r="R89" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q89" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>119</v>
       </c>
@@ -6756,51 +6766,51 @@
       <c r="D90" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E90" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>men-beard-trim</v>
+      <c r="E90" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="G90" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="H90" s="8">
+      <c r="G90" s="8">
         <v>40</v>
       </c>
-      <c r="I90" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J90" s="8">
+      <c r="H90" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I90" s="8">
         <v>60</v>
       </c>
-      <c r="K90" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L90" s="15" t="s">
+      <c r="J90" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K90" s="15" t="s">
         <v>325</v>
       </c>
+      <c r="L90" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="M90" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N90" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O90" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P90" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="8">
+        <v>335</v>
+      </c>
+      <c r="N90" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O90" s="4">
+        <v>0</v>
+      </c>
+      <c r="P90" s="8">
         <v>1700</v>
       </c>
-      <c r="R90" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q90" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>119</v>
       </c>
@@ -6813,51 +6823,51 @@
       <c r="D91" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E91" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>men-chest-trimming</v>
+      <c r="E91" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G91" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="H91" s="8">
+      <c r="G91" s="8">
         <v>2</v>
       </c>
-      <c r="I91" s="8" t="s">
+      <c r="H91" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="J91" s="8">
+      <c r="I91" s="8">
         <v>4</v>
       </c>
+      <c r="J91" s="8" t="s">
+        <v>274</v>
+      </c>
       <c r="K91" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="L91" s="8" t="s">
         <v>326</v>
       </c>
+      <c r="L91" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="M91" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N91" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O91" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P91" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="8">
+        <v>335</v>
+      </c>
+      <c r="N91" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O91" s="4">
+        <v>0</v>
+      </c>
+      <c r="P91" s="8">
         <v>16000</v>
       </c>
-      <c r="R91" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q91" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R91" s="4"/>
+      <c r="S91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>119</v>
       </c>
@@ -6870,51 +6880,51 @@
       <c r="D92" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E92" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>men-earnose-wax</v>
+      <c r="E92" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G92" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="H92" s="8">
+      <c r="G92" s="8">
         <v>2</v>
       </c>
-      <c r="I92" s="8" t="s">
+      <c r="H92" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="J92" s="8">
+      <c r="I92" s="8">
         <v>4</v>
       </c>
-      <c r="K92" s="8" t="s">
+      <c r="J92" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="L92" s="15" t="s">
+      <c r="K92" s="15" t="s">
         <v>327</v>
       </c>
+      <c r="L92" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="M92" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N92" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O92" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P92" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="8">
+        <v>335</v>
+      </c>
+      <c r="N92" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O92" s="4">
+        <v>0</v>
+      </c>
+      <c r="P92" s="8">
         <v>20000</v>
       </c>
-      <c r="R92" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q92" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>119</v>
       </c>
@@ -6927,51 +6937,51 @@
       <c r="D93" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E93" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>men-eyebrow-threading</v>
+      <c r="E93" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="F93" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G93" s="8">
+        <v>60</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I93" s="8">
+        <v>90</v>
+      </c>
+      <c r="J93" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K93" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="G93" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="H93" s="8">
-        <v>60</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J93" s="8">
-        <v>90</v>
-      </c>
-      <c r="K93" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L93" s="8" t="s">
-        <v>230</v>
+      <c r="L93" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N93" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O93" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P93" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="8">
+        <v>335</v>
+      </c>
+      <c r="N93" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O93" s="4">
+        <v>0</v>
+      </c>
+      <c r="P93" s="8">
         <v>5000</v>
       </c>
-      <c r="R93" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q93" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>119</v>
       </c>
@@ -6984,51 +6994,51 @@
       <c r="D94" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E94" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>men-eyebrows wax</v>
+      <c r="E94" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G94" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="H94" s="8">
+      <c r="G94" s="8">
         <v>2</v>
       </c>
-      <c r="I94" s="8" t="s">
+      <c r="H94" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="J94" s="8">
+      <c r="I94" s="8">
         <v>4</v>
       </c>
+      <c r="J94" s="8" t="s">
+        <v>274</v>
+      </c>
       <c r="K94" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="L94" s="8" t="s">
         <v>328</v>
       </c>
+      <c r="L94" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="M94" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N94" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O94" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P94" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="8">
+        <v>335</v>
+      </c>
+      <c r="N94" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O94" s="4">
+        <v>0</v>
+      </c>
+      <c r="P94" s="8">
         <v>24000</v>
       </c>
-      <c r="R94" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q94" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>119</v>
       </c>
@@ -7041,51 +7051,51 @@
       <c r="D95" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E95" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>men-facial</v>
+      <c r="E95" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="G95" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="H95" s="8">
+      <c r="G95" s="8">
         <v>25</v>
       </c>
-      <c r="I95" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J95" s="8">
+      <c r="H95" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I95" s="8">
         <v>45</v>
       </c>
-      <c r="K95" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L95" s="15" t="s">
+      <c r="J95" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K95" s="15" t="s">
         <v>329</v>
       </c>
+      <c r="L95" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="M95" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N95" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O95" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P95" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="8">
+        <v>335</v>
+      </c>
+      <c r="N95" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O95" s="4">
+        <v>0</v>
+      </c>
+      <c r="P95" s="8">
         <v>999</v>
       </c>
-      <c r="R95" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q95" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>119</v>
       </c>
@@ -7098,51 +7108,51 @@
       <c r="D96" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E96" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>men-legs-waxing</v>
+      <c r="E96" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="F96" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G96" s="8">
+        <v>15</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I96" s="8">
+        <v>30</v>
+      </c>
+      <c r="J96" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K96" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="G96" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="H96" s="8">
-        <v>15</v>
-      </c>
-      <c r="I96" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J96" s="8">
-        <v>30</v>
-      </c>
-      <c r="K96" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L96" s="8" t="s">
-        <v>224</v>
+      <c r="L96" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N96" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O96" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P96" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="8">
+        <v>335</v>
+      </c>
+      <c r="N96" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O96" s="4">
+        <v>0</v>
+      </c>
+      <c r="P96" s="8">
         <v>100</v>
       </c>
-      <c r="R96" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q96" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R96" s="4"/>
+      <c r="S96" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>119</v>
       </c>
@@ -7155,51 +7165,51 @@
       <c r="D97" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E97" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>men-moustache-trim</v>
+      <c r="E97" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="F97" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G97" s="8">
+        <v>20</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I97" s="8">
+        <v>25</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K97" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="G97" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="H97" s="8">
-        <v>20</v>
-      </c>
-      <c r="I97" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J97" s="8">
-        <v>25</v>
-      </c>
-      <c r="K97" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L97" s="8" t="s">
-        <v>232</v>
+      <c r="L97" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N97" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O97" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P97" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="8">
+        <v>335</v>
+      </c>
+      <c r="N97" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O97" s="4">
+        <v>0</v>
+      </c>
+      <c r="P97" s="8">
         <v>300</v>
       </c>
-      <c r="R97" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q97" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>119</v>
       </c>
@@ -7212,51 +7222,51 @@
       <c r="D98" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E98" s="4" t="str">
-        <f t="shared" ref="E98:E107" si="3">LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TRIM(C98)," ","-"),"'",""),"""",""),"/",""),"?",""),".",""),"&gt;",""),"&lt;",""),",",""),";",""),":",""),"[",""),"]",""),"}",""),"[",""),"{",""),"|",""),"\",""),"+",""),"=",""),"~",""),"`",""),"!",""),"@",""),"#",""),"$",""),"%",""),"^",""),"&amp;",""),"*",""),"(",""),")",""),"#",""),"'",""),"""",""),"---","-"),"--","-"))</f>
-        <v>men-neck-waxing</v>
+      <c r="E98" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="F98" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G98" s="8">
+        <v>100</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I98" s="8">
+        <v>120</v>
+      </c>
+      <c r="J98" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K98" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="G98" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="H98" s="8">
-        <v>100</v>
-      </c>
-      <c r="I98" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J98" s="8">
-        <v>120</v>
-      </c>
-      <c r="K98" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L98" s="8" t="s">
-        <v>233</v>
+      <c r="L98" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N98" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O98" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P98" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="8">
+        <v>335</v>
+      </c>
+      <c r="N98" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O98" s="4">
+        <v>0</v>
+      </c>
+      <c r="P98" s="8">
         <v>1200</v>
       </c>
-      <c r="R98" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q98" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>119</v>
       </c>
@@ -7269,51 +7279,51 @@
       <c r="D99" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E99" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>men-under-arm-waxing</v>
+      <c r="E99" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="F99" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G99" s="8">
+        <v>30</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I99" s="8">
+        <v>60</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K99" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="G99" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="H99" s="8">
-        <v>30</v>
-      </c>
-      <c r="I99" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J99" s="8">
-        <v>60</v>
-      </c>
-      <c r="K99" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L99" s="8" t="s">
-        <v>234</v>
+      <c r="L99" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N99" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O99" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P99" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="8">
+        <v>335</v>
+      </c>
+      <c r="N99" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O99" s="4">
+        <v>0</v>
+      </c>
+      <c r="P99" s="8">
         <v>1000</v>
       </c>
-      <c r="R99" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q99" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>119</v>
       </c>
@@ -7326,51 +7336,51 @@
       <c r="D100" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E100" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>men-facial-pro</v>
+      <c r="E100" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G100" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="H100" s="8">
+      <c r="G100" s="8">
         <v>20</v>
       </c>
-      <c r="I100" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J100" s="8">
+      <c r="H100" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I100" s="8">
         <v>40</v>
       </c>
-      <c r="K100" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L100" s="15" t="s">
+      <c r="J100" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K100" s="15" t="s">
         <v>330</v>
       </c>
+      <c r="L100" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="M100" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N100" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O100" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P100" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="8">
+        <v>335</v>
+      </c>
+      <c r="N100" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O100" s="4">
+        <v>0</v>
+      </c>
+      <c r="P100" s="8">
         <v>500</v>
       </c>
-      <c r="R100" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q100" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R100" s="4"/>
+      <c r="S100" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>119</v>
       </c>
@@ -7383,51 +7393,51 @@
       <c r="D101" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E101" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>men-full-body-waxing</v>
+      <c r="E101" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G101" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="H101" s="8">
+      <c r="G101" s="8">
         <v>40</v>
       </c>
-      <c r="I101" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J101" s="8">
+      <c r="H101" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I101" s="8">
         <v>60</v>
       </c>
+      <c r="J101" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K101" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L101" s="8" t="s">
         <v>330</v>
       </c>
+      <c r="L101" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="M101" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N101" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O101" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P101" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="8">
+        <v>335</v>
+      </c>
+      <c r="N101" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O101" s="4">
+        <v>0</v>
+      </c>
+      <c r="P101" s="8">
         <v>899</v>
       </c>
-      <c r="R101" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q101" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>119</v>
       </c>
@@ -7440,51 +7450,51 @@
       <c r="D102" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E102" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>men-hair-color</v>
+      <c r="E102" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="G102" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="H102" s="8">
+      <c r="G102" s="8">
         <v>15</v>
       </c>
-      <c r="I102" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J102" s="8">
+      <c r="H102" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I102" s="8">
         <v>25</v>
       </c>
+      <c r="J102" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K102" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L102" s="8" t="s">
         <v>331</v>
       </c>
+      <c r="L102" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="M102" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N102" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O102" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P102" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="8">
+        <v>335</v>
+      </c>
+      <c r="N102" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O102" s="4">
+        <v>0</v>
+      </c>
+      <c r="P102" s="8">
         <v>300</v>
       </c>
-      <c r="R102" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q102" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R102" s="4"/>
+      <c r="S102" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>119</v>
       </c>
@@ -7497,51 +7507,51 @@
       <c r="D103" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E103" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>men-hair-color-pro</v>
+      <c r="E103" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="G103" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="H103" s="8">
+      <c r="G103" s="8">
         <v>30</v>
       </c>
-      <c r="I103" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J103" s="8">
+      <c r="H103" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I103" s="8">
         <v>45</v>
       </c>
+      <c r="J103" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K103" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L103" s="8" t="s">
         <v>332</v>
       </c>
+      <c r="L103" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="M103" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N103" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O103" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P103" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="8">
+        <v>335</v>
+      </c>
+      <c r="N103" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O103" s="4">
+        <v>0</v>
+      </c>
+      <c r="P103" s="8">
         <v>399</v>
       </c>
-      <c r="R103" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q103" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R103" s="4"/>
+      <c r="S103" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>119</v>
       </c>
@@ -7554,51 +7564,51 @@
       <c r="D104" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E104" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>men-hair-cut</v>
+      <c r="E104" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="F104" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G104" s="8">
+        <v>30</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I104" s="8">
+        <v>45</v>
+      </c>
+      <c r="J104" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K104" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="G104" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="H104" s="8">
-        <v>30</v>
-      </c>
-      <c r="I104" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J104" s="8">
-        <v>45</v>
-      </c>
-      <c r="K104" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L104" s="8" t="s">
-        <v>238</v>
+      <c r="L104" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N104" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O104" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P104" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="8">
+        <v>335</v>
+      </c>
+      <c r="N104" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O104" s="4">
+        <v>0</v>
+      </c>
+      <c r="P104" s="8">
         <v>500</v>
       </c>
-      <c r="R104" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q104" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R104" s="4"/>
+      <c r="S104" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>119</v>
       </c>
@@ -7611,51 +7621,51 @@
       <c r="D105" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E105" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>manicure-for-men</v>
+      <c r="E105" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="F105" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G105" s="8">
+        <v>60</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I105" s="8">
+        <v>1</v>
+      </c>
+      <c r="J105" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="K105" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="G105" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="H105" s="8">
-        <v>60</v>
-      </c>
-      <c r="I105" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J105" s="8">
-        <v>1</v>
-      </c>
-      <c r="K105" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="L105" s="15" t="s">
-        <v>208</v>
+      <c r="L105" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N105" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O105" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P105" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="8">
+        <v>335</v>
+      </c>
+      <c r="N105" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O105" s="4">
+        <v>0</v>
+      </c>
+      <c r="P105" s="8">
         <v>5000</v>
       </c>
-      <c r="R105" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q105" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R105" s="4"/>
+      <c r="S105" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>119</v>
       </c>
@@ -7668,51 +7678,51 @@
       <c r="D106" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E106" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>men-chest-waxing</v>
+      <c r="E106" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="F106" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G106" s="8">
+        <v>30</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I106" s="8">
+        <v>45</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K106" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="G106" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="H106" s="8">
-        <v>30</v>
-      </c>
-      <c r="I106" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J106" s="8">
-        <v>45</v>
-      </c>
-      <c r="K106" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L106" s="15" t="s">
-        <v>239</v>
+      <c r="L106" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="M106" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N106" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O106" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P106" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="8">
+        <v>335</v>
+      </c>
+      <c r="N106" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O106" s="4">
+        <v>0</v>
+      </c>
+      <c r="P106" s="8">
         <v>1000</v>
       </c>
-      <c r="R106" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q106" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R106" s="4"/>
+      <c r="S106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>119</v>
       </c>
@@ -7725,51 +7735,51 @@
       <c r="D107" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E107" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>pedicure-for-men</v>
-      </c>
-      <c r="F107" s="11" t="s">
+      <c r="E107" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="G107" s="8" t="s">
+      <c r="F107" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H107" s="8">
+      <c r="G107" s="8">
         <v>15</v>
       </c>
-      <c r="I107" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J107" s="8">
+      <c r="H107" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I107" s="8">
         <v>30</v>
       </c>
+      <c r="J107" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K107" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L107" s="8" t="s">
         <v>291</v>
       </c>
+      <c r="L107" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="M107" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N107" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O107" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P107" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q107" s="8">
+        <v>335</v>
+      </c>
+      <c r="N107" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O107" s="4">
+        <v>0</v>
+      </c>
+      <c r="P107" s="8">
         <v>750</v>
       </c>
-      <c r="R107" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q107" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R107" s="4"/>
+      <c r="S107" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B108" s="10"/>
       <c r="N108" s="9"/>
     </row>
@@ -7781,10 +7791,10 @@
     <sortCondition ref="C2:C107"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
-    <hyperlink ref="N2" r:id="rId2"/>
-    <hyperlink ref="N81" r:id="rId3"/>
-    <hyperlink ref="N82:N107" r:id="rId4" display="https://demo.murarkey.com/image/cache/600X600/xc8H4rpAZTTlg9LrT0JXJf9rKAFMEFlXIayNAjTK.jpg"/>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="M81" r:id="rId3"/>
+    <hyperlink ref="M82:M107" r:id="rId4" display="https://demo.murarkey.com/image/cache/600X600/xc8H4rpAZTTlg9LrT0JXJf9rKAFMEFlXIayNAjTK.jpg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/relatedFiles/other files/final/Services/services import list final to import.xlsx
+++ b/relatedFiles/other files/final/Services/services import list final to import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Dev\Laravel\_Developing_Phase_Project\Murarkey Single Vendor\Murarkey_single_vendor_ecommerce_with_vuexy_template\relatedFiles\other files\final\Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9078D233-1603-4D46-A40F-5906B27A4F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295EF51D-7A56-4B42-A200-DF2E91DDA63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1173,7 +1173,7 @@
     <t>https://demo.murarkey.com/image/cache/600X600/xc8H4rpAZTTlg9LrT0JXJf9rKAFMEFlXIayNAjTK.jpg</t>
   </si>
   <si>
-    <t>serviceTo</t>
+    <t>sereviceTo</t>
   </si>
 </sst>
 </file>
@@ -1684,7 +1684,7 @@
   <dimension ref="A1:T108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
